--- a/pore_velocity/siteinfo_20210603_edwin.xlsx
+++ b/pore_velocity/siteinfo_20210603_edwin.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\edwin\github\edwinkost\various_tools\pore_velocity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{156FA5C7-0F7E-440F-9738-731AA2637583}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C909E47-10A0-4D8C-9EA3-3BB10096FB18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D1C135C-DC0E-408A-9B1C-E5030C35A25A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Y$45</definedName>
@@ -160,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="182">
   <si>
     <t>Country</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -741,6 +742,21 @@
   </si>
   <si>
     <t>lon</t>
+  </si>
+  <si>
+    <t>pore vel</t>
+  </si>
+  <si>
+    <t>gw_rch</t>
+  </si>
+  <si>
+    <t>distance_PERC</t>
+  </si>
+  <si>
+    <t>distance_pore_vel</t>
+  </si>
+  <si>
+    <t>treshold_gw_rch_mm_per_year</t>
   </si>
 </sst>
 </file>
@@ -810,7 +826,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -865,6 +881,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -880,6 +898,2365 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t>x: TT_PERC (Jaivime)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-NL" baseline="0"/>
+              <a:t> ; y: TT_pore_vel (PCR-GLOBWB)</a:t>
+            </a:r>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AH$2:$AH$45</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>54.504798008845306</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.564191346121209</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>243.91756418320128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>464.06569883047757</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53.225342656525001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.372596665608985</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>199.07139510737426</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26.220808472744171</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>392.47220233805871</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>209.35790269017585</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>284.33320623567187</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1558.56640625</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.054454657867616</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>432.87515721491411</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>330.67939117664577</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>82.781177968183201</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>82.570493764595867</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>88.793818650697148</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>69.928533380681827</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>50.636119955390164</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>197.27682365003378</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1365.3209758254716</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1327.7433342889908</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>33.376348250227551</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>34.427321048183188</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>77.502445400697184</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>242.6715913366092</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>56.716348933077242</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>63.805892549711899</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>124.91955334627139</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>81.559047226078022</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>82.698140064431058</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2467.1611785888599</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>30.490148448060062</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>31.529216339793734</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1537.2809773330805</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1430.2004179666546</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1215.0837538655728</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1022.464263409453</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1149.6617484076432</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1018.1386610259123</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>665.40243033258992</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>573.11320754716985</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1156.4566380027741</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AI$2:$AI$45</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>45.266329335088152</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56.450211060118498</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14079.289659743854</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14079.289659743854</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1019.5108838642342</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>562.8070827830727</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>117.70364465351346</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>272.35950604236928</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1220.6302936215877</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1794.0522577962581</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3178.5894229994551</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2501.1384409035563</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>192.72875264729802</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1482.7928721704393</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1112.2715469564803</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1410.4254668320648</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>987.03435499286581</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1410.4254668320648</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1410.4254668320648</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1410.4254668320648</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>177.83292013823635</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>213.77853950151564</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>213.77853950151564</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28.279078801450968</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>28.279078801450968</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>360.56514061724448</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>360.56514061724448</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>360.56514061724448</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>360.56514061724448</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>360.56514061724448</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>360.56514061724448</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>360.56514061724448</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>360.56514061724448</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>360.56514061724448</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>360.56514061724448</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2847.2233609412533</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2847.2233609412533</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7262.9199110821555</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7262.9199110821555</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7262.9199110821555</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7262.9199110821555</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>342.01985658896092</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1054.6688098404923</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2060.0390395329405</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-16C5-4ADD-9108-887F9509624F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="457473400"/>
+        <c:axId val="567256720"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="457473400"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="567256720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="567256720"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="10000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="457473400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t>only for RCH</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-NL" baseline="0"/>
+              <a:t> &gt;= 25 mm/year</a:t>
+            </a:r>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AM$2:$AM$45</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>54.504798008845306</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.564191346121209</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>199.07139510737426</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>197.27682365003378</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1365.3209758254716</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1327.7433342889908</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>33.376348250227551</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>34.427321048183188</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>665.40243033258992</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AN$2:$AN$45</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>45.266329335088152</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56.450211060118498</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>117.70364465351346</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>177.83292013823635</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>213.77853950151564</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>213.77853950151564</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28.279078801450968</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>28.279078801450968</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>342.01985658896092</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6820-4BCC-A01E-A10B8128F0DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="457473400"/>
+        <c:axId val="567256720"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="457473400"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="567256720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="567256720"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="10000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="457473400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>80960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5AC6F56-DF62-4E9B-9507-7A72CBF0C39D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{201B22E5-AB25-4680-ADCB-3EF2A77DE5E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1247,10 +3624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{503646FF-7567-4DD7-994A-D0F19276D172}">
-  <dimension ref="A1:AC47"/>
+  <dimension ref="A1:AN47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2:AC45"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AN17" sqref="AN17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1277,10 +3654,15 @@
     <col min="23" max="23" width="22.140625" style="1" hidden="1" customWidth="1"/>
     <col min="24" max="24" width="24" style="1" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="13.42578125" style="1"/>
+    <col min="26" max="27" width="18.5703125" style="1" customWidth="1"/>
+    <col min="28" max="31" width="13.42578125" style="1"/>
+    <col min="32" max="34" width="13.42578125" style="23"/>
+    <col min="35" max="35" width="14" style="23" customWidth="1"/>
+    <col min="36" max="36" width="27.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="13.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>173</v>
       </c>
@@ -1356,17 +3738,53 @@
       <c r="Y1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="Z1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB1" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>176</v>
       </c>
+      <c r="AE1" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="AK1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL1" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="AM1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN1" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1450,20 +3868,67 @@
       <c r="Y2" s="14">
         <v>0.91</v>
       </c>
+      <c r="Z2" s="1">
+        <f>K2*M2</f>
+        <v>45.347991943359297</v>
+      </c>
       <c r="AA2" s="1">
+        <f>L2*N2</f>
+        <v>45.347991943359297</v>
+      </c>
+      <c r="AB2" s="1">
         <f>A2</f>
         <v>1</v>
       </c>
-      <c r="AB2" s="23">
+      <c r="AC2" s="23">
         <f>F2</f>
         <v>51.483333000000002</v>
       </c>
-      <c r="AC2" s="23">
+      <c r="AD2" s="23">
         <f>G2</f>
         <v>-1.4</v>
       </c>
+      <c r="AE2" s="23">
+        <f>VLOOKUP(AB2,Sheet2!$D$2:$H$18,2,TRUE)*365.25*1000</f>
+        <v>237.93699900000001</v>
+      </c>
+      <c r="AF2" s="25">
+        <f>K2</f>
+        <v>0.83200000000000007</v>
+      </c>
+      <c r="AG2" s="25">
+        <f>VLOOKUP(AB2,Sheet2!$D$2:$H$18,5,TRUE)</f>
+        <v>1.0018040475000001</v>
+      </c>
+      <c r="AH2" s="23">
+        <f>Z2/AF2</f>
+        <v>54.504798008845306</v>
+      </c>
+      <c r="AI2" s="23">
+        <f>AA2/AG2</f>
+        <v>45.266329335088152</v>
+      </c>
+      <c r="AJ2" s="23">
+        <v>25</v>
+      </c>
+      <c r="AK2" s="23">
+        <f>IF($AE2&gt;$AJ$2,AF2)</f>
+        <v>0.83200000000000007</v>
+      </c>
+      <c r="AL2" s="23">
+        <f t="shared" ref="AL2:AN2" si="6">IF($AE2&gt;$AJ$2,AG2)</f>
+        <v>1.0018040475000001</v>
+      </c>
+      <c r="AM2" s="23">
+        <f t="shared" si="6"/>
+        <v>54.504798008845306</v>
+      </c>
+      <c r="AN2" s="23">
+        <f t="shared" si="6"/>
+        <v>45.266329335088152</v>
+      </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -1502,11 +3967,11 @@
         <v>0.22431502875411</v>
       </c>
       <c r="M3" s="9">
-        <f t="shared" ref="M3:M45" si="6">H3/K3</f>
+        <f t="shared" ref="M3:M45" si="7">H3/K3</f>
         <v>17.564191346121209</v>
       </c>
       <c r="N3" s="9">
-        <f t="shared" ref="N3:N45" si="7">H3/L3</f>
+        <f t="shared" ref="N3:N45" si="8">H3/L3</f>
         <v>56.488901084823681</v>
       </c>
       <c r="O3" s="12">
@@ -1547,20 +4012,64 @@
       <c r="Y3" s="14">
         <v>0.85</v>
       </c>
+      <c r="Z3" s="1">
+        <f t="shared" ref="Z3:Z45" si="9">K3*M3</f>
+        <v>12.6713094711303</v>
+      </c>
       <c r="AA3" s="1">
-        <f t="shared" ref="AA3:AA45" si="8">A3</f>
+        <f t="shared" ref="AA3:AA45" si="10">L3*N3</f>
+        <v>12.6713094711303</v>
+      </c>
+      <c r="AB3" s="1">
+        <f t="shared" ref="AB3:AB45" si="11">A3</f>
         <v>2</v>
       </c>
-      <c r="AB3" s="23">
-        <f t="shared" ref="AB3:AB45" si="9">F3</f>
+      <c r="AC3" s="23">
+        <f t="shared" ref="AC3:AC45" si="12">F3</f>
         <v>34.616667</v>
       </c>
-      <c r="AC3" s="23">
-        <f t="shared" ref="AC3:AC45" si="10">G3</f>
+      <c r="AD3" s="23">
+        <f t="shared" ref="AD3:AD45" si="13">G3</f>
         <v>32.966667000000001</v>
       </c>
+      <c r="AE3" s="23">
+        <f>VLOOKUP(AB3,Sheet2!$D$2:$H$18,2,TRUE)*365.25*1000</f>
+        <v>45.842892750000004</v>
+      </c>
+      <c r="AF3" s="25">
+        <f>K3</f>
+        <v>0.72142857142857142</v>
+      </c>
+      <c r="AG3" s="25">
+        <f>VLOOKUP(AB3,Sheet2!$D$2:$H$18,5,TRUE)</f>
+        <v>0.2244687705</v>
+      </c>
+      <c r="AH3" s="23">
+        <f t="shared" ref="AH3:AH45" si="14">Z3/AF3</f>
+        <v>17.564191346121209</v>
+      </c>
+      <c r="AI3" s="23">
+        <f t="shared" ref="AI3:AI45" si="15">AA3/AG3</f>
+        <v>56.450211060118498</v>
+      </c>
+      <c r="AK3" s="23">
+        <f t="shared" ref="AK3:AK45" si="16">IF($AE3&gt;$AJ$2,AF3)</f>
+        <v>0.72142857142857142</v>
+      </c>
+      <c r="AL3" s="23">
+        <f>IF(AE3&gt;$AJ$2,AG3)</f>
+        <v>0.2244687705</v>
+      </c>
+      <c r="AM3" s="23">
+        <f t="shared" ref="AM3:AM45" si="17">IF($AE3&gt;$AJ$2,AH3)</f>
+        <v>17.564191346121209</v>
+      </c>
+      <c r="AN3" s="23">
+        <f t="shared" ref="AN3:AN45" si="18">IF($AE3&gt;$AJ$2,AI3)</f>
+        <v>56.450211060118498</v>
+      </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -1599,11 +4108,11 @@
         <v>2.5109583700000002E-6</v>
       </c>
       <c r="M4" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>243.91756418320128</v>
       </c>
       <c r="N4" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>248357723.97202981</v>
       </c>
       <c r="O4" s="12">
@@ -1644,20 +4153,64 @@
       <c r="Y4" s="14">
         <v>0.72</v>
       </c>
+      <c r="Z4" s="1">
+        <f t="shared" si="9"/>
+        <v>623.61590576171795</v>
+      </c>
       <c r="AA4" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
+        <v>623.61590576171795</v>
+      </c>
+      <c r="AB4" s="1">
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
-      <c r="AB4" s="23">
-        <f t="shared" si="9"/>
+      <c r="AC4" s="23">
+        <f t="shared" si="12"/>
         <v>36.933332999999998</v>
       </c>
-      <c r="AC4" s="23">
-        <f t="shared" si="10"/>
+      <c r="AD4" s="23">
+        <f t="shared" si="13"/>
         <v>-116.483333</v>
       </c>
+      <c r="AE4" s="23">
+        <f>VLOOKUP(AB4,Sheet2!$D$2:$H$18,2,TRUE)*365.25*1000</f>
+        <v>5.0000168250000003</v>
+      </c>
+      <c r="AF4" s="25">
+        <f t="shared" ref="AF4:AF7" si="19">K4</f>
+        <v>2.5566666666666666</v>
+      </c>
+      <c r="AG4" s="25">
+        <f>VLOOKUP(AB4,Sheet2!$D$2:$H$18,5,TRUE)</f>
+        <v>4.4293137000000003E-2</v>
+      </c>
+      <c r="AH4" s="23">
+        <f t="shared" si="14"/>
+        <v>243.91756418320128</v>
+      </c>
+      <c r="AI4" s="23">
+        <f t="shared" si="15"/>
+        <v>14079.289659743854</v>
+      </c>
+      <c r="AK4" s="23" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AL4" s="23" t="b">
+        <f>IF(AE4&gt;$AJ$2,AG4)</f>
+        <v>0</v>
+      </c>
+      <c r="AM4" s="23" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AN4" s="23" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -1696,11 +4249,11 @@
         <v>2.5109583700000002E-6</v>
       </c>
       <c r="M5" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>464.06569883047757</v>
       </c>
       <c r="N5" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>248357723.97202981</v>
       </c>
       <c r="O5" s="12">
@@ -1741,20 +4294,64 @@
       <c r="Y5" s="14">
         <v>0.66</v>
       </c>
+      <c r="Z5" s="1">
+        <f t="shared" si="9"/>
+        <v>623.61590576171795</v>
+      </c>
       <c r="AA5" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
+        <v>623.61590576171795</v>
+      </c>
+      <c r="AB5" s="1">
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="AB5" s="23">
-        <f t="shared" si="9"/>
+      <c r="AC5" s="23">
+        <f t="shared" si="12"/>
         <v>36.933332999999998</v>
       </c>
-      <c r="AC5" s="23">
-        <f t="shared" si="10"/>
+      <c r="AD5" s="23">
+        <f t="shared" si="13"/>
         <v>-116.483333</v>
       </c>
+      <c r="AE5" s="23">
+        <f>VLOOKUP(AB5,Sheet2!$D$2:$H$18,2,TRUE)*365.25*1000</f>
+        <v>5.0000168250000003</v>
+      </c>
+      <c r="AF5" s="25">
+        <f t="shared" si="19"/>
+        <v>1.3438095238095238</v>
+      </c>
+      <c r="AG5" s="25">
+        <f>VLOOKUP(AB5,Sheet2!$D$2:$H$18,5,TRUE)</f>
+        <v>4.4293137000000003E-2</v>
+      </c>
+      <c r="AH5" s="23">
+        <f t="shared" si="14"/>
+        <v>464.06569883047757</v>
+      </c>
+      <c r="AI5" s="23">
+        <f t="shared" si="15"/>
+        <v>14079.289659743854</v>
+      </c>
+      <c r="AK5" s="23" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AL5" s="23" t="b">
+        <f>IF(AE5&gt;$AJ$2,AG5)</f>
+        <v>0</v>
+      </c>
+      <c r="AM5" s="23" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AN5" s="23" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -1793,11 +4390,11 @@
         <v>6.5013318273000002E-3</v>
       </c>
       <c r="M6" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>53.225342656525001</v>
       </c>
       <c r="N6" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6975.1849540945977</v>
       </c>
       <c r="O6" s="12">
@@ -1838,20 +4435,64 @@
       <c r="Y6" s="14">
         <v>0.94</v>
       </c>
+      <c r="Z6" s="1">
+        <f t="shared" si="9"/>
+        <v>45.347991943359297</v>
+      </c>
       <c r="AA6" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
+        <v>45.347991943359297</v>
+      </c>
+      <c r="AB6" s="1">
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="AB6" s="23">
-        <f t="shared" si="9"/>
+      <c r="AC6" s="23">
+        <f t="shared" si="12"/>
         <v>15.7</v>
       </c>
-      <c r="AC6" s="23">
-        <f t="shared" si="10"/>
+      <c r="AD6" s="23">
+        <f t="shared" si="13"/>
         <v>-16.316666999999999</v>
       </c>
+      <c r="AE6" s="23">
+        <f>VLOOKUP(AB6,Sheet2!$D$2:$H$18,2,TRUE)*365.25*1000</f>
+        <v>5.0000168250000003</v>
+      </c>
+      <c r="AF6" s="25">
+        <f t="shared" si="19"/>
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="AG6" s="25">
+        <f>VLOOKUP(AB6,Sheet2!$D$2:$H$18,5,TRUE)</f>
+        <v>4.4480144999999999E-2</v>
+      </c>
+      <c r="AH6" s="23">
+        <f t="shared" si="14"/>
+        <v>53.225342656525001</v>
+      </c>
+      <c r="AI6" s="23">
+        <f t="shared" si="15"/>
+        <v>1019.5108838642342</v>
+      </c>
+      <c r="AK6" s="23" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AL6" s="23" t="b">
+        <f>IF(AE6&gt;$AJ$2,AG6)</f>
+        <v>0</v>
+      </c>
+      <c r="AM6" s="23" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AN6" s="23" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -1890,11 +4531,11 @@
         <v>1.760614E-7</v>
       </c>
       <c r="M7" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25.372596665608985</v>
       </c>
       <c r="N7" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>146376825.91939914</v>
       </c>
       <c r="O7" s="12">
@@ -1935,20 +4576,64 @@
       <c r="Y7" s="14">
         <v>0.93</v>
       </c>
+      <c r="Z7" s="1">
+        <f t="shared" si="9"/>
+        <v>25.7713088989257</v>
+      </c>
       <c r="AA7" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
+        <v>25.7713088989257</v>
+      </c>
+      <c r="AB7" s="1">
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
-      <c r="AB7" s="23">
-        <f t="shared" si="9"/>
+      <c r="AC7" s="23">
+        <f t="shared" si="12"/>
         <v>36.766666999999998</v>
       </c>
-      <c r="AC7" s="23">
-        <f t="shared" si="10"/>
+      <c r="AD7" s="23">
+        <f t="shared" si="13"/>
         <v>-116.7</v>
       </c>
+      <c r="AE7" s="23">
+        <f>VLOOKUP(AB7,Sheet2!$D$2:$H$18,2,TRUE)*365.25*1000</f>
+        <v>5.0000168250000003</v>
+      </c>
+      <c r="AF7" s="25">
+        <f t="shared" si="19"/>
+        <v>1.0157142857142858</v>
+      </c>
+      <c r="AG7" s="25">
+        <f>VLOOKUP(AB7,Sheet2!$D$2:$H$18,5,TRUE)</f>
+        <v>4.5790661999999996E-2</v>
+      </c>
+      <c r="AH7" s="23">
+        <f t="shared" si="14"/>
+        <v>25.372596665608985</v>
+      </c>
+      <c r="AI7" s="23">
+        <f t="shared" si="15"/>
+        <v>562.8070827830727</v>
+      </c>
+      <c r="AK7" s="23" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AL7" s="23" t="b">
+        <f>IF(AE7&gt;$AJ$2,AG7)</f>
+        <v>0</v>
+      </c>
+      <c r="AM7" s="23" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AN7" s="23" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -1987,11 +4672,11 @@
         <v>0.65175797091812004</v>
       </c>
       <c r="M8" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>199.07139510737426</v>
       </c>
       <c r="N8" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>117.78437727449807</v>
       </c>
       <c r="O8" s="12">
@@ -2032,20 +4717,64 @@
       <c r="Y8" s="14">
         <v>0.37</v>
       </c>
+      <c r="Z8" s="1">
+        <f t="shared" si="9"/>
+        <v>76.766906738281193</v>
+      </c>
       <c r="AA8" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
+        <v>76.766906738281193</v>
+      </c>
+      <c r="AB8" s="1">
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
-      <c r="AB8" s="23">
-        <f t="shared" si="9"/>
+      <c r="AC8" s="23">
+        <f t="shared" si="12"/>
         <v>34.450000000000003</v>
       </c>
-      <c r="AC8" s="23">
-        <f t="shared" si="10"/>
+      <c r="AD8" s="23">
+        <f t="shared" si="13"/>
         <v>-117.333333</v>
       </c>
+      <c r="AE8" s="23">
+        <f>VLOOKUP(AB8,Sheet2!$D$2:$H$18,2,TRUE)*365.25*1000</f>
+        <v>102.7061085</v>
+      </c>
+      <c r="AF8" s="25">
+        <f>K8</f>
+        <v>0.385625</v>
+      </c>
+      <c r="AG8" s="25">
+        <f>VLOOKUP(AB8,Sheet2!$D$2:$H$18,5,TRUE)</f>
+        <v>0.65220500999999997</v>
+      </c>
+      <c r="AH8" s="23">
+        <f t="shared" si="14"/>
+        <v>199.07139510737426</v>
+      </c>
+      <c r="AI8" s="23">
+        <f t="shared" si="15"/>
+        <v>117.70364465351346</v>
+      </c>
+      <c r="AK8" s="23">
+        <f t="shared" si="16"/>
+        <v>0.385625</v>
+      </c>
+      <c r="AL8" s="23">
+        <f>IF(AE8&gt;$AJ$2,AG8)</f>
+        <v>0.65220500999999997</v>
+      </c>
+      <c r="AM8" s="23">
+        <f t="shared" si="17"/>
+        <v>199.07139510737426</v>
+      </c>
+      <c r="AN8" s="23">
+        <f t="shared" si="18"/>
+        <v>117.70364465351346</v>
+      </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -2084,11 +4813,11 @@
         <v>9.4557496777189998E-2</v>
       </c>
       <c r="M9" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26.220808472744171</v>
       </c>
       <c r="N9" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>272.54643764155236</v>
       </c>
       <c r="O9" s="12">
@@ -2127,20 +4856,64 @@
       <c r="Y9" s="11">
         <v>0.90380000000000005</v>
       </c>
+      <c r="Z9" s="1">
+        <f t="shared" si="9"/>
+        <v>25.7713088989257</v>
+      </c>
       <c r="AA9" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
+        <v>25.771308898925703</v>
+      </c>
+      <c r="AB9" s="1">
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
-      <c r="AB9" s="23">
-        <f t="shared" si="9"/>
+      <c r="AC9" s="23">
+        <f t="shared" si="12"/>
         <v>37.683332999999998</v>
       </c>
-      <c r="AC9" s="23">
-        <f t="shared" si="10"/>
+      <c r="AD9" s="23">
+        <f t="shared" si="13"/>
         <v>113.683333</v>
       </c>
+      <c r="AE9" s="23">
+        <f>VLOOKUP(AB9,Sheet2!$D$2:$H$18,2,TRUE)*365.25*1000</f>
+        <v>19.534702275000001</v>
+      </c>
+      <c r="AF9" s="25">
+        <f>K9</f>
+        <v>0.98285714285714287</v>
+      </c>
+      <c r="AG9" s="25">
+        <f>VLOOKUP(AB9,Sheet2!$D$2:$H$18,5,TRUE)</f>
+        <v>9.4622395499999998E-2</v>
+      </c>
+      <c r="AH9" s="23">
+        <f t="shared" si="14"/>
+        <v>26.220808472744171</v>
+      </c>
+      <c r="AI9" s="23">
+        <f t="shared" si="15"/>
+        <v>272.35950604236928</v>
+      </c>
+      <c r="AK9" s="23" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AL9" s="23" t="b">
+        <f>IF(AE9&gt;$AJ$2,AG9)</f>
+        <v>0</v>
+      </c>
+      <c r="AM9" s="23" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AN9" s="23" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -2179,11 +4952,11 @@
         <v>9.4557496777189998E-2</v>
       </c>
       <c r="M10" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>392.47220233805871</v>
       </c>
       <c r="N10" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1221.4680627015571</v>
       </c>
       <c r="O10" s="12">
@@ -2224,20 +4997,64 @@
       <c r="Y10" s="14">
         <v>0.77</v>
       </c>
+      <c r="Z10" s="1">
+        <f t="shared" si="9"/>
+        <v>115.498962402343</v>
+      </c>
       <c r="AA10" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
+        <v>115.498962402343</v>
+      </c>
+      <c r="AB10" s="1">
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
-      <c r="AB10" s="23">
-        <f t="shared" si="9"/>
+      <c r="AC10" s="23">
+        <f t="shared" si="12"/>
         <v>37.683332999999998</v>
       </c>
-      <c r="AC10" s="23">
-        <f t="shared" si="10"/>
+      <c r="AD10" s="23">
+        <f t="shared" si="13"/>
         <v>113.683333</v>
       </c>
+      <c r="AE10" s="23">
+        <f>VLOOKUP(AB10,Sheet2!$D$2:$H$18,2,TRUE)*365.25*1000</f>
+        <v>19.534702275000001</v>
+      </c>
+      <c r="AF10" s="25">
+        <f t="shared" ref="AF10:AF21" si="20">K10</f>
+        <v>0.29428571428571432</v>
+      </c>
+      <c r="AG10" s="25">
+        <f>VLOOKUP(AB10,Sheet2!$D$2:$H$18,5,TRUE)</f>
+        <v>9.4622395499999998E-2</v>
+      </c>
+      <c r="AH10" s="23">
+        <f t="shared" si="14"/>
+        <v>392.47220233805871</v>
+      </c>
+      <c r="AI10" s="23">
+        <f t="shared" si="15"/>
+        <v>1220.6302936215877</v>
+      </c>
+      <c r="AK10" s="23" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AL10" s="23" t="b">
+        <f>IF(AE10&gt;$AJ$2,AG10)</f>
+        <v>0</v>
+      </c>
+      <c r="AM10" s="23" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AN10" s="23" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -2276,11 +5093,11 @@
         <v>9.2236959999999995E-8</v>
       </c>
       <c r="M11" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>209.35790269017585</v>
       </c>
       <c r="N11" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>530156505.74414533</v>
       </c>
       <c r="O11" s="12">
@@ -2321,20 +5138,64 @@
       <c r="Y11" s="14">
         <v>0.96</v>
       </c>
+      <c r="Z11" s="1">
+        <f t="shared" si="9"/>
+        <v>48.9000244140625</v>
+      </c>
       <c r="AA11" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
+        <v>48.9000244140625</v>
+      </c>
+      <c r="AB11" s="1">
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
-      <c r="AB11" s="23">
-        <f t="shared" si="9"/>
+      <c r="AC11" s="23">
+        <f t="shared" si="12"/>
         <v>42.866667</v>
       </c>
-      <c r="AC11" s="23">
-        <f t="shared" si="10"/>
+      <c r="AD11" s="23">
+        <f t="shared" si="13"/>
         <v>118.933333</v>
       </c>
+      <c r="AE11" s="23">
+        <f>VLOOKUP(AB11,Sheet2!$D$2:$H$18,2,TRUE)*365.25*1000</f>
+        <v>5.0000168250000003</v>
+      </c>
+      <c r="AF11" s="25">
+        <f t="shared" si="20"/>
+        <v>0.23357142857142857</v>
+      </c>
+      <c r="AG11" s="25">
+        <f>VLOOKUP(AB11,Sheet2!$D$2:$H$18,5,TRUE)</f>
+        <v>2.7256744725E-2</v>
+      </c>
+      <c r="AH11" s="23">
+        <f t="shared" si="14"/>
+        <v>209.35790269017585</v>
+      </c>
+      <c r="AI11" s="23">
+        <f t="shared" si="15"/>
+        <v>1794.0522577962581</v>
+      </c>
+      <c r="AK11" s="23" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AL11" s="23" t="b">
+        <f>IF(AE11&gt;$AJ$2,AG11)</f>
+        <v>0</v>
+      </c>
+      <c r="AM11" s="23" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AN11" s="23" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -2373,11 +5234,11 @@
         <v>9.2236959999999995E-8</v>
       </c>
       <c r="M12" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>284.33320623567187</v>
       </c>
       <c r="N12" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>939298091.44058084</v>
       </c>
       <c r="O12" s="12">
@@ -2418,20 +5279,64 @@
       <c r="Y12" s="14">
         <v>0.86</v>
       </c>
+      <c r="Z12" s="1">
+        <f t="shared" si="9"/>
+        <v>86.638000488281193</v>
+      </c>
       <c r="AA12" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
+        <v>86.638000488281193</v>
+      </c>
+      <c r="AB12" s="1">
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
-      <c r="AB12" s="23">
-        <f t="shared" si="9"/>
+      <c r="AC12" s="23">
+        <f t="shared" si="12"/>
         <v>42.866667</v>
       </c>
-      <c r="AC12" s="23">
-        <f t="shared" si="10"/>
+      <c r="AD12" s="23">
+        <f t="shared" si="13"/>
         <v>118.933333</v>
       </c>
+      <c r="AE12" s="23">
+        <f>VLOOKUP(AB12,Sheet2!$D$2:$H$18,2,TRUE)*365.25*1000</f>
+        <v>5.0000168250000003</v>
+      </c>
+      <c r="AF12" s="25">
+        <f t="shared" si="20"/>
+        <v>0.30470588235294116</v>
+      </c>
+      <c r="AG12" s="25">
+        <f>VLOOKUP(AB12,Sheet2!$D$2:$H$18,5,TRUE)</f>
+        <v>2.7256744725E-2</v>
+      </c>
+      <c r="AH12" s="23">
+        <f t="shared" si="14"/>
+        <v>284.33320623567187</v>
+      </c>
+      <c r="AI12" s="23">
+        <f t="shared" si="15"/>
+        <v>3178.5894229994551</v>
+      </c>
+      <c r="AK12" s="23" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AL12" s="23" t="b">
+        <f>IF(AE12&gt;$AJ$2,AG12)</f>
+        <v>0</v>
+      </c>
+      <c r="AM12" s="23" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AN12" s="23" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -2470,11 +5375,11 @@
         <v>7.7839429359144993E-2</v>
       </c>
       <c r="M13" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1558.56640625</v>
       </c>
       <c r="N13" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2502.8549462042197</v>
       </c>
       <c r="O13" s="12">
@@ -2513,20 +5418,64 @@
       <c r="Y13" s="14">
         <v>0.81</v>
       </c>
+      <c r="Z13" s="1">
+        <f t="shared" si="9"/>
+        <v>194.82080078125</v>
+      </c>
       <c r="AA13" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
+        <v>194.82080078125</v>
+      </c>
+      <c r="AB13" s="1">
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="AB13" s="23">
-        <f t="shared" si="9"/>
+      <c r="AC13" s="23">
+        <f t="shared" si="12"/>
         <v>35.166666999999997</v>
       </c>
-      <c r="AC13" s="23">
-        <f t="shared" si="10"/>
+      <c r="AD13" s="23">
+        <f t="shared" si="13"/>
         <v>107.8</v>
       </c>
+      <c r="AE13" s="23">
+        <f>VLOOKUP(AB13,Sheet2!$D$2:$H$18,2,TRUE)*365.25*1000</f>
+        <v>13.944441449999999</v>
+      </c>
+      <c r="AF13" s="25">
+        <f t="shared" si="20"/>
+        <v>0.125</v>
+      </c>
+      <c r="AG13" s="25">
+        <f>VLOOKUP(AB13,Sheet2!$D$2:$H$18,5,TRUE)</f>
+        <v>7.7892849750000007E-2</v>
+      </c>
+      <c r="AH13" s="23">
+        <f t="shared" si="14"/>
+        <v>1558.56640625</v>
+      </c>
+      <c r="AI13" s="23">
+        <f t="shared" si="15"/>
+        <v>2501.1384409035563</v>
+      </c>
+      <c r="AK13" s="23" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AL13" s="23" t="b">
+        <f>IF(AE13&gt;$AJ$2,AG13)</f>
+        <v>0</v>
+      </c>
+      <c r="AM13" s="23" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AN13" s="23" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -2565,11 +5514,11 @@
         <v>7.7839429359144993E-2</v>
       </c>
       <c r="M14" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>20.054454657867616</v>
       </c>
       <c r="N14" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>192.86102038590019</v>
       </c>
       <c r="O14" s="12">
@@ -2610,20 +5559,64 @@
       <c r="Y14" s="14">
         <v>0.92</v>
       </c>
+      <c r="Z14" s="1">
+        <f t="shared" si="9"/>
+        <v>15.0121917724609</v>
+      </c>
       <c r="AA14" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
+        <v>15.0121917724609</v>
+      </c>
+      <c r="AB14" s="1">
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
-      <c r="AB14" s="23">
-        <f t="shared" si="9"/>
+      <c r="AC14" s="23">
+        <f t="shared" si="12"/>
         <v>35.166666999999997</v>
       </c>
-      <c r="AC14" s="23">
-        <f t="shared" si="10"/>
+      <c r="AD14" s="23">
+        <f t="shared" si="13"/>
         <v>107.8</v>
       </c>
+      <c r="AE14" s="23">
+        <f>VLOOKUP(AB14,Sheet2!$D$2:$H$18,2,TRUE)*365.25*1000</f>
+        <v>13.944441449999999</v>
+      </c>
+      <c r="AF14" s="25">
+        <f t="shared" si="20"/>
+        <v>0.74857142857142855</v>
+      </c>
+      <c r="AG14" s="25">
+        <f>VLOOKUP(AB14,Sheet2!$D$2:$H$18,5,TRUE)</f>
+        <v>7.7892849750000007E-2</v>
+      </c>
+      <c r="AH14" s="23">
+        <f t="shared" si="14"/>
+        <v>20.054454657867616</v>
+      </c>
+      <c r="AI14" s="23">
+        <f t="shared" si="15"/>
+        <v>192.72875264729802</v>
+      </c>
+      <c r="AK14" s="23" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AL14" s="23" t="b">
+        <f>IF(AE14&gt;$AJ$2,AG14)</f>
+        <v>0</v>
+      </c>
+      <c r="AM14" s="23" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AN14" s="23" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -2662,11 +5655,11 @@
         <v>7.7839429359144993E-2</v>
       </c>
       <c r="M15" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>432.87515721491411</v>
       </c>
       <c r="N15" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1483.8104974978669</v>
       </c>
       <c r="O15" s="12">
@@ -2707,20 +5700,64 @@
       <c r="Y15" s="14">
         <v>0.94</v>
       </c>
+      <c r="Z15" s="1">
+        <f t="shared" si="9"/>
+        <v>115.498962402343</v>
+      </c>
       <c r="AA15" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
+        <v>115.498962402343</v>
+      </c>
+      <c r="AB15" s="1">
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
-      <c r="AB15" s="23">
-        <f t="shared" si="9"/>
+      <c r="AC15" s="23">
+        <f t="shared" si="12"/>
         <v>35.166666999999997</v>
       </c>
-      <c r="AC15" s="23">
-        <f t="shared" si="10"/>
+      <c r="AD15" s="23">
+        <f t="shared" si="13"/>
         <v>107.8</v>
       </c>
+      <c r="AE15" s="23">
+        <f>VLOOKUP(AB15,Sheet2!$D$2:$H$18,2,TRUE)*365.25*1000</f>
+        <v>13.944441449999999</v>
+      </c>
+      <c r="AF15" s="25">
+        <f t="shared" si="20"/>
+        <v>0.26681818181818184</v>
+      </c>
+      <c r="AG15" s="25">
+        <f>VLOOKUP(AB15,Sheet2!$D$2:$H$18,5,TRUE)</f>
+        <v>7.7892849750000007E-2</v>
+      </c>
+      <c r="AH15" s="23">
+        <f t="shared" si="14"/>
+        <v>432.87515721491411</v>
+      </c>
+      <c r="AI15" s="23">
+        <f t="shared" si="15"/>
+        <v>1482.7928721704393</v>
+      </c>
+      <c r="AK15" s="23" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AL15" s="23" t="b">
+        <f>IF(AE15&gt;$AJ$2,AG15)</f>
+        <v>0</v>
+      </c>
+      <c r="AM15" s="23" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AN15" s="23" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -2759,11 +5796,11 @@
         <v>7.7839429359144993E-2</v>
       </c>
       <c r="M16" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>330.67939117664577</v>
       </c>
       <c r="N16" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1113.0348873517596</v>
       </c>
       <c r="O16" s="12">
@@ -2804,20 +5841,64 @@
       <c r="Y16" s="14">
         <v>0.92</v>
       </c>
+      <c r="Z16" s="1">
+        <f t="shared" si="9"/>
+        <v>86.638000488281193</v>
+      </c>
       <c r="AA16" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
+        <v>86.638000488281193</v>
+      </c>
+      <c r="AB16" s="1">
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
-      <c r="AB16" s="23">
-        <f t="shared" si="9"/>
+      <c r="AC16" s="23">
+        <f t="shared" si="12"/>
         <v>35.166666999999997</v>
       </c>
-      <c r="AC16" s="23">
-        <f t="shared" si="10"/>
+      <c r="AD16" s="23">
+        <f t="shared" si="13"/>
         <v>107.8</v>
       </c>
+      <c r="AE16" s="23">
+        <f>VLOOKUP(AB16,Sheet2!$D$2:$H$18,2,TRUE)*365.25*1000</f>
+        <v>13.944441449999999</v>
+      </c>
+      <c r="AF16" s="25">
+        <f t="shared" si="20"/>
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="AG16" s="25">
+        <f>VLOOKUP(AB16,Sheet2!$D$2:$H$18,5,TRUE)</f>
+        <v>7.7892849750000007E-2</v>
+      </c>
+      <c r="AH16" s="23">
+        <f t="shared" si="14"/>
+        <v>330.67939117664577</v>
+      </c>
+      <c r="AI16" s="23">
+        <f t="shared" si="15"/>
+        <v>1112.2715469564803</v>
+      </c>
+      <c r="AK16" s="23" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AL16" s="23" t="b">
+        <f>IF(AE16&gt;$AJ$2,AG16)</f>
+        <v>0</v>
+      </c>
+      <c r="AM16" s="23" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AN16" s="23" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -2856,11 +5937,11 @@
         <v>2.9853181004999997E-5</v>
       </c>
       <c r="M17" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>82.781177968183201</v>
       </c>
       <c r="N17" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1638017.2151795956</v>
       </c>
       <c r="O17" s="12">
@@ -2901,20 +5982,64 @@
       <c r="Y17" s="14">
         <v>0.82</v>
       </c>
+      <c r="Z17" s="1">
+        <f t="shared" si="9"/>
+        <v>48.9000244140625</v>
+      </c>
       <c r="AA17" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
+        <v>48.9000244140625</v>
+      </c>
+      <c r="AB17" s="1">
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
-      <c r="AB17" s="23">
-        <f t="shared" si="9"/>
+      <c r="AC17" s="23">
+        <f t="shared" si="12"/>
         <v>-27.216667000000001</v>
       </c>
-      <c r="AC17" s="23">
-        <f t="shared" si="10"/>
+      <c r="AD17" s="23">
+        <f t="shared" si="13"/>
         <v>23.2</v>
       </c>
+      <c r="AE17" s="23">
+        <f>VLOOKUP(AB17,Sheet2!$D$2:$H$18,2,TRUE)*365.25*1000</f>
+        <v>5.0000168250000003</v>
+      </c>
+      <c r="AF17" s="25">
+        <f t="shared" si="20"/>
+        <v>0.59071428571428564</v>
+      </c>
+      <c r="AG17" s="25">
+        <f>VLOOKUP(AB17,Sheet2!$D$2:$H$18,5,TRUE)</f>
+        <v>3.4670406600000002E-2</v>
+      </c>
+      <c r="AH17" s="23">
+        <f t="shared" si="14"/>
+        <v>82.781177968183201</v>
+      </c>
+      <c r="AI17" s="23">
+        <f t="shared" si="15"/>
+        <v>1410.4254668320648</v>
+      </c>
+      <c r="AK17" s="23" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AL17" s="23" t="b">
+        <f>IF(AE17&gt;$AJ$2,AG17)</f>
+        <v>0</v>
+      </c>
+      <c r="AM17" s="23" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AN17" s="23" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -2957,7 +6082,7 @@
         <v>82.570493764595867</v>
       </c>
       <c r="N18" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1146306.0640016845</v>
       </c>
       <c r="O18" s="12">
@@ -2998,20 +6123,64 @@
       <c r="Y18" s="14">
         <v>0.94</v>
       </c>
+      <c r="Z18" s="1">
+        <f t="shared" si="9"/>
+        <v>34.220882415771399</v>
+      </c>
       <c r="AA18" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
+        <v>34.220882415771399</v>
+      </c>
+      <c r="AB18" s="1">
+        <f t="shared" si="11"/>
         <v>17</v>
       </c>
-      <c r="AB18" s="23">
-        <f t="shared" si="9"/>
+      <c r="AC18" s="23">
+        <f t="shared" si="12"/>
         <v>-27.216667000000001</v>
       </c>
-      <c r="AC18" s="23">
-        <f t="shared" si="10"/>
+      <c r="AD18" s="23">
+        <f t="shared" si="13"/>
         <v>23.2</v>
       </c>
+      <c r="AE18" s="23">
+        <f>VLOOKUP(AB18,Sheet2!$D$2:$H$18,2,TRUE)*365.25*1000</f>
+        <v>5.0000168250000003</v>
+      </c>
+      <c r="AF18" s="25">
+        <f t="shared" si="20"/>
+        <v>0.41444444444444445</v>
+      </c>
+      <c r="AG18" s="25">
+        <f>VLOOKUP(AB18,Sheet2!$D$2:$H$18,5,TRUE)</f>
+        <v>3.4670406600000002E-2</v>
+      </c>
+      <c r="AH18" s="23">
+        <f t="shared" si="14"/>
+        <v>82.570493764595867</v>
+      </c>
+      <c r="AI18" s="23">
+        <f t="shared" si="15"/>
+        <v>987.03435499286581</v>
+      </c>
+      <c r="AK18" s="23" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AL18" s="23" t="b">
+        <f>IF(AE18&gt;$AJ$2,AG18)</f>
+        <v>0</v>
+      </c>
+      <c r="AM18" s="23" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AN18" s="23" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -3050,11 +6219,11 @@
         <v>2.9853181004999997E-5</v>
       </c>
       <c r="M19" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>88.793818650697148</v>
       </c>
       <c r="N19" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1638017.2151795956</v>
       </c>
       <c r="O19" s="12">
@@ -3095,20 +6264,64 @@
       <c r="Y19" s="14">
         <v>0.71</v>
       </c>
+      <c r="Z19" s="1">
+        <f t="shared" si="9"/>
+        <v>48.9000244140625</v>
+      </c>
       <c r="AA19" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
+        <v>48.9000244140625</v>
+      </c>
+      <c r="AB19" s="1">
+        <f t="shared" si="11"/>
         <v>18</v>
       </c>
-      <c r="AB19" s="23">
-        <f t="shared" si="9"/>
+      <c r="AC19" s="23">
+        <f t="shared" si="12"/>
         <v>-27.216667000000001</v>
       </c>
-      <c r="AC19" s="23">
-        <f t="shared" si="10"/>
+      <c r="AD19" s="23">
+        <f t="shared" si="13"/>
         <v>23.2</v>
       </c>
+      <c r="AE19" s="23">
+        <f>VLOOKUP(AB19,Sheet2!$D$2:$H$18,2,TRUE)*365.25*1000</f>
+        <v>5.0000168250000003</v>
+      </c>
+      <c r="AF19" s="25">
+        <f t="shared" si="20"/>
+        <v>0.55071428571428571</v>
+      </c>
+      <c r="AG19" s="25">
+        <f>VLOOKUP(AB19,Sheet2!$D$2:$H$18,5,TRUE)</f>
+        <v>3.4670406600000002E-2</v>
+      </c>
+      <c r="AH19" s="23">
+        <f t="shared" si="14"/>
+        <v>88.793818650697148</v>
+      </c>
+      <c r="AI19" s="23">
+        <f t="shared" si="15"/>
+        <v>1410.4254668320648</v>
+      </c>
+      <c r="AK19" s="23" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AL19" s="23" t="b">
+        <f>IF(AE19&gt;$AJ$2,AG19)</f>
+        <v>0</v>
+      </c>
+      <c r="AM19" s="23" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AN19" s="23" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A20" s="14">
         <v>19</v>
       </c>
@@ -3147,11 +6360,11 @@
         <v>2.9853181004999997E-5</v>
       </c>
       <c r="M20" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>69.928533380681827</v>
       </c>
       <c r="N20" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1638017.2151795956</v>
       </c>
       <c r="O20" s="12">
@@ -3192,20 +6405,64 @@
       <c r="Y20" s="14">
         <v>0.54</v>
       </c>
+      <c r="Z20" s="1">
+        <f t="shared" si="9"/>
+        <v>48.9000244140625</v>
+      </c>
       <c r="AA20" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
+        <v>48.9000244140625</v>
+      </c>
+      <c r="AB20" s="1">
+        <f t="shared" si="11"/>
         <v>19</v>
       </c>
-      <c r="AB20" s="23">
-        <f t="shared" si="9"/>
+      <c r="AC20" s="23">
+        <f t="shared" si="12"/>
         <v>-27.216667000000001</v>
       </c>
-      <c r="AC20" s="23">
-        <f t="shared" si="10"/>
+      <c r="AD20" s="23">
+        <f t="shared" si="13"/>
         <v>23.2</v>
       </c>
+      <c r="AE20" s="23">
+        <f>VLOOKUP(AB20,Sheet2!$D$2:$H$18,2,TRUE)*365.25*1000</f>
+        <v>5.0000168250000003</v>
+      </c>
+      <c r="AF20" s="25">
+        <f t="shared" si="20"/>
+        <v>0.69928571428571418</v>
+      </c>
+      <c r="AG20" s="25">
+        <f>VLOOKUP(AB20,Sheet2!$D$2:$H$18,5,TRUE)</f>
+        <v>3.4670406600000002E-2</v>
+      </c>
+      <c r="AH20" s="23">
+        <f t="shared" si="14"/>
+        <v>69.928533380681827</v>
+      </c>
+      <c r="AI20" s="23">
+        <f t="shared" si="15"/>
+        <v>1410.4254668320648</v>
+      </c>
+      <c r="AK20" s="23" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AL20" s="23" t="b">
+        <f>IF(AE20&gt;$AJ$2,AG20)</f>
+        <v>0</v>
+      </c>
+      <c r="AM20" s="23" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AN20" s="23" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -3244,11 +6501,11 @@
         <v>2.9853181004999997E-5</v>
       </c>
       <c r="M21" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>50.636119955390164</v>
       </c>
       <c r="N21" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1638017.2151795956</v>
       </c>
       <c r="O21" s="12">
@@ -3289,20 +6546,64 @@
       <c r="Y21" s="14">
         <v>0.28000000000000003</v>
       </c>
+      <c r="Z21" s="1">
+        <f t="shared" si="9"/>
+        <v>48.9000244140625</v>
+      </c>
       <c r="AA21" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
+        <v>48.9000244140625</v>
+      </c>
+      <c r="AB21" s="1">
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
-      <c r="AB21" s="23">
-        <f t="shared" si="9"/>
+      <c r="AC21" s="23">
+        <f t="shared" si="12"/>
         <v>-27.216667000000001</v>
       </c>
-      <c r="AC21" s="23">
-        <f t="shared" si="10"/>
+      <c r="AD21" s="23">
+        <f t="shared" si="13"/>
         <v>23.2</v>
       </c>
+      <c r="AE21" s="23">
+        <f>VLOOKUP(AB21,Sheet2!$D$2:$H$18,2,TRUE)*365.25*1000</f>
+        <v>5.0000168250000003</v>
+      </c>
+      <c r="AF21" s="25">
+        <f t="shared" si="20"/>
+        <v>0.96571428571428564</v>
+      </c>
+      <c r="AG21" s="25">
+        <f>VLOOKUP(AB21,Sheet2!$D$2:$H$18,5,TRUE)</f>
+        <v>3.4670406600000002E-2</v>
+      </c>
+      <c r="AH21" s="23">
+        <f t="shared" si="14"/>
+        <v>50.636119955390164</v>
+      </c>
+      <c r="AI21" s="23">
+        <f t="shared" si="15"/>
+        <v>1410.4254668320648</v>
+      </c>
+      <c r="AK21" s="23" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AL21" s="23" t="b">
+        <f>IF(AE21&gt;$AJ$2,AG21)</f>
+        <v>0</v>
+      </c>
+      <c r="AM21" s="23" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AN21" s="23" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -3341,11 +6642,11 @@
         <v>0.78900377498934504</v>
       </c>
       <c r="M22" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>197.27682365003378</v>
       </c>
       <c r="N22" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>177.95437955666196</v>
       </c>
       <c r="O22" s="12">
@@ -3386,20 +6687,64 @@
       <c r="Y22" s="14">
         <v>0.9</v>
       </c>
+      <c r="Z22" s="1">
+        <f t="shared" si="9"/>
+        <v>140.40667724609301</v>
+      </c>
       <c r="AA22" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
+        <v>140.40667724609301</v>
+      </c>
+      <c r="AB22" s="1">
+        <f t="shared" si="11"/>
         <v>21</v>
       </c>
-      <c r="AB22" s="23">
-        <f t="shared" si="9"/>
+      <c r="AC22" s="23">
+        <f t="shared" si="12"/>
         <v>52.6</v>
       </c>
-      <c r="AC22" s="23">
-        <f t="shared" si="10"/>
+      <c r="AD22" s="23">
+        <f t="shared" si="13"/>
         <v>0.88333300000000003</v>
       </c>
+      <c r="AE22" s="23">
+        <f>VLOOKUP(AB22,Sheet2!$D$2:$H$18,2,TRUE)*365.25*1000</f>
+        <v>195.49677525000001</v>
+      </c>
+      <c r="AF22" s="25">
+        <f>K22</f>
+        <v>0.71172413793103451</v>
+      </c>
+      <c r="AG22" s="25">
+        <f>VLOOKUP(AB22,Sheet2!$D$2:$H$18,5,TRUE)</f>
+        <v>0.78954266250000005</v>
+      </c>
+      <c r="AH22" s="23">
+        <f t="shared" si="14"/>
+        <v>197.27682365003378</v>
+      </c>
+      <c r="AI22" s="23">
+        <f t="shared" si="15"/>
+        <v>177.83292013823635</v>
+      </c>
+      <c r="AK22" s="23">
+        <f t="shared" si="16"/>
+        <v>0.71172413793103451</v>
+      </c>
+      <c r="AL22" s="23">
+        <f>IF(AE22&gt;$AJ$2,AG22)</f>
+        <v>0.78954266250000005</v>
+      </c>
+      <c r="AM22" s="23">
+        <f t="shared" si="17"/>
+        <v>197.27682365003378</v>
+      </c>
+      <c r="AN22" s="23">
+        <f t="shared" si="18"/>
+        <v>177.83292013823635</v>
+      </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -3438,11 +6783,11 @@
         <v>0.91069604153752004</v>
       </c>
       <c r="M23" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1365.3209758254716</v>
       </c>
       <c r="N23" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>213.92516481386673</v>
       </c>
       <c r="O23" s="12">
@@ -3481,20 +6826,64 @@
       <c r="Y23" s="14">
         <v>0.95</v>
       </c>
+      <c r="Z23" s="1">
+        <f t="shared" si="9"/>
+        <v>194.82080078125</v>
+      </c>
       <c r="AA23" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
+        <v>194.82080078125</v>
+      </c>
+      <c r="AB23" s="1">
+        <f t="shared" si="11"/>
         <v>22</v>
       </c>
-      <c r="AB23" s="23">
-        <f t="shared" si="9"/>
+      <c r="AC23" s="23">
+        <f t="shared" si="12"/>
         <v>50.9</v>
       </c>
-      <c r="AC23" s="23">
-        <f t="shared" si="10"/>
+      <c r="AD23" s="23">
+        <f t="shared" si="13"/>
         <v>-1.983333</v>
       </c>
+      <c r="AE23" s="23">
+        <f>VLOOKUP(AB23,Sheet2!$D$2:$H$18,2,TRUE)*365.25*1000</f>
+        <v>219.49041299999999</v>
+      </c>
+      <c r="AF23" s="25">
+        <f>K23</f>
+        <v>0.1426923076923077</v>
+      </c>
+      <c r="AG23" s="25">
+        <f>VLOOKUP(AB23,Sheet2!$D$2:$H$18,5,TRUE)</f>
+        <v>0.91132066499999997</v>
+      </c>
+      <c r="AH23" s="23">
+        <f t="shared" si="14"/>
+        <v>1365.3209758254716</v>
+      </c>
+      <c r="AI23" s="23">
+        <f t="shared" si="15"/>
+        <v>213.77853950151564</v>
+      </c>
+      <c r="AK23" s="23">
+        <f t="shared" si="16"/>
+        <v>0.1426923076923077</v>
+      </c>
+      <c r="AL23" s="23">
+        <f>IF(AE23&gt;$AJ$2,AG23)</f>
+        <v>0.91132066499999997</v>
+      </c>
+      <c r="AM23" s="23">
+        <f t="shared" si="17"/>
+        <v>1365.3209758254716</v>
+      </c>
+      <c r="AN23" s="23">
+        <f t="shared" si="18"/>
+        <v>213.77853950151564</v>
+      </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -3533,11 +6922,11 @@
         <v>1.0011188301724649</v>
       </c>
       <c r="M24" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1327.7433342889908</v>
       </c>
       <c r="N24" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>194.60307299153268</v>
       </c>
       <c r="O24" s="12">
@@ -3576,20 +6965,64 @@
       <c r="Y24" s="14">
         <v>0.94</v>
       </c>
+      <c r="Z24" s="1">
+        <f t="shared" si="9"/>
+        <v>194.82080078124997</v>
+      </c>
       <c r="AA24" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
+        <v>194.82080078125</v>
+      </c>
+      <c r="AB24" s="1">
+        <f t="shared" si="11"/>
         <v>23</v>
       </c>
-      <c r="AB24" s="23">
-        <f t="shared" si="9"/>
+      <c r="AC24" s="23">
+        <f t="shared" si="12"/>
         <v>51.483333000000002</v>
       </c>
-      <c r="AC24" s="23">
-        <f t="shared" si="10"/>
+      <c r="AD24" s="23">
+        <f t="shared" si="13"/>
         <v>-1.4</v>
       </c>
+      <c r="AE24" s="23">
+        <f>VLOOKUP(AB24,Sheet2!$D$2:$H$18,2,TRUE)*365.25*1000</f>
+        <v>219.49041299999999</v>
+      </c>
+      <c r="AF24" s="25">
+        <f t="shared" ref="AF24:AF26" si="21">K24</f>
+        <v>0.14673076923076922</v>
+      </c>
+      <c r="AG24" s="25">
+        <f>VLOOKUP(AB24,Sheet2!$D$2:$H$18,5,TRUE)</f>
+        <v>0.91132066499999997</v>
+      </c>
+      <c r="AH24" s="23">
+        <f t="shared" si="14"/>
+        <v>1327.7433342889908</v>
+      </c>
+      <c r="AI24" s="23">
+        <f t="shared" si="15"/>
+        <v>213.77853950151564</v>
+      </c>
+      <c r="AK24" s="23">
+        <f t="shared" si="16"/>
+        <v>0.14673076923076922</v>
+      </c>
+      <c r="AL24" s="23">
+        <f>IF(AE24&gt;$AJ$2,AG24)</f>
+        <v>0.91132066499999997</v>
+      </c>
+      <c r="AM24" s="23">
+        <f t="shared" si="17"/>
+        <v>1327.7433342889908</v>
+      </c>
+      <c r="AN24" s="23">
+        <f t="shared" si="18"/>
+        <v>213.77853950151564</v>
+      </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -3628,11 +7061,11 @@
         <v>0.91069604153752004</v>
       </c>
       <c r="M25" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>33.376348250227551</v>
       </c>
       <c r="N25" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>28.298474708878967</v>
       </c>
       <c r="O25" s="12">
@@ -3673,20 +7106,64 @@
       <c r="Y25" s="14">
         <v>0.78</v>
       </c>
+      <c r="Z25" s="1">
+        <f t="shared" si="9"/>
+        <v>25.771308898925703</v>
+      </c>
       <c r="AA25" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
+        <v>25.7713088989257</v>
+      </c>
+      <c r="AB25" s="1">
+        <f t="shared" si="11"/>
         <v>24</v>
       </c>
-      <c r="AB25" s="23">
-        <f t="shared" si="9"/>
+      <c r="AC25" s="23">
+        <f t="shared" si="12"/>
         <v>50.9</v>
       </c>
-      <c r="AC25" s="23">
-        <f t="shared" si="10"/>
+      <c r="AD25" s="23">
+        <f t="shared" si="13"/>
         <v>-1.983333</v>
       </c>
+      <c r="AE25" s="23">
+        <f>VLOOKUP(AB25,Sheet2!$D$2:$H$18,2,TRUE)*365.25*1000</f>
+        <v>219.49041299999999</v>
+      </c>
+      <c r="AF25" s="25">
+        <f t="shared" si="21"/>
+        <v>0.77214285714285713</v>
+      </c>
+      <c r="AG25" s="25">
+        <f>VLOOKUP(AB25,Sheet2!$D$2:$H$18,5,TRUE)</f>
+        <v>0.91132066499999997</v>
+      </c>
+      <c r="AH25" s="23">
+        <f t="shared" si="14"/>
+        <v>33.376348250227551</v>
+      </c>
+      <c r="AI25" s="23">
+        <f t="shared" si="15"/>
+        <v>28.279078801450968</v>
+      </c>
+      <c r="AK25" s="23">
+        <f t="shared" si="16"/>
+        <v>0.77214285714285713</v>
+      </c>
+      <c r="AL25" s="23">
+        <f>IF(AE25&gt;$AJ$2,AG25)</f>
+        <v>0.91132066499999997</v>
+      </c>
+      <c r="AM25" s="23">
+        <f t="shared" si="17"/>
+        <v>33.376348250227551</v>
+      </c>
+      <c r="AN25" s="23">
+        <f t="shared" si="18"/>
+        <v>28.279078801450968</v>
+      </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -3725,11 +7202,11 @@
         <v>0.91069604153752004</v>
       </c>
       <c r="M26" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>34.427321048183188</v>
       </c>
       <c r="N26" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>28.298474708878967</v>
       </c>
       <c r="O26" s="12">
@@ -3770,20 +7247,64 @@
       <c r="Y26" s="14">
         <v>0.78</v>
       </c>
+      <c r="Z26" s="1">
+        <f t="shared" si="9"/>
+        <v>25.7713088989257</v>
+      </c>
       <c r="AA26" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
+        <v>25.7713088989257</v>
+      </c>
+      <c r="AB26" s="1">
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
-      <c r="AB26" s="23">
-        <f t="shared" si="9"/>
+      <c r="AC26" s="23">
+        <f t="shared" si="12"/>
         <v>50.9</v>
       </c>
-      <c r="AC26" s="23">
-        <f t="shared" si="10"/>
+      <c r="AD26" s="23">
+        <f t="shared" si="13"/>
         <v>-1.983333</v>
       </c>
+      <c r="AE26" s="23">
+        <f>VLOOKUP(AB26,Sheet2!$D$2:$H$18,2,TRUE)*365.25*1000</f>
+        <v>219.49041299999999</v>
+      </c>
+      <c r="AF26" s="25">
+        <f t="shared" si="21"/>
+        <v>0.74857142857142855</v>
+      </c>
+      <c r="AG26" s="25">
+        <f>VLOOKUP(AB26,Sheet2!$D$2:$H$18,5,TRUE)</f>
+        <v>0.91132066499999997</v>
+      </c>
+      <c r="AH26" s="23">
+        <f t="shared" si="14"/>
+        <v>34.427321048183188</v>
+      </c>
+      <c r="AI26" s="23">
+        <f t="shared" si="15"/>
+        <v>28.279078801450968</v>
+      </c>
+      <c r="AK26" s="23">
+        <f t="shared" si="16"/>
+        <v>0.74857142857142855</v>
+      </c>
+      <c r="AL26" s="23">
+        <f>IF(AE26&gt;$AJ$2,AG26)</f>
+        <v>0.91132066499999997</v>
+      </c>
+      <c r="AM26" s="23">
+        <f t="shared" si="17"/>
+        <v>34.427321048183188</v>
+      </c>
+      <c r="AN26" s="23">
+        <f t="shared" si="18"/>
+        <v>28.279078801450968</v>
+      </c>
     </row>
-    <row r="27" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>26</v>
       </c>
@@ -3822,11 +7343,11 @@
         <v>6.8378097348649997E-2</v>
       </c>
       <c r="M27" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>77.502445400697184</v>
       </c>
       <c r="N27" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>360.81161574431695</v>
       </c>
       <c r="O27" s="12">
@@ -3867,20 +7388,64 @@
       <c r="Y27" s="14">
         <v>0.32</v>
       </c>
+      <c r="Z27" s="1">
+        <f t="shared" si="9"/>
+        <v>24.671611785888601</v>
+      </c>
       <c r="AA27" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
+        <v>24.671611785888601</v>
+      </c>
+      <c r="AB27" s="1">
+        <f t="shared" si="11"/>
         <v>26</v>
       </c>
-      <c r="AB27" s="23">
-        <f t="shared" si="9"/>
+      <c r="AC27" s="23">
+        <f t="shared" si="12"/>
         <v>-37.666666999999997</v>
       </c>
-      <c r="AC27" s="23">
-        <f t="shared" si="10"/>
+      <c r="AD27" s="23">
+        <f t="shared" si="13"/>
         <v>140.5</v>
       </c>
+      <c r="AE27" s="23">
+        <f>VLOOKUP(AB27,Sheet2!$D$2:$H$18,2,TRUE)*365.25*1000</f>
+        <v>13.01130075</v>
+      </c>
+      <c r="AF27" s="25">
+        <f>K27</f>
+        <v>0.3183333333333333</v>
+      </c>
+      <c r="AG27" s="25">
+        <f>VLOOKUP(AB27,Sheet2!$D$2:$H$18,5,TRUE)</f>
+        <v>6.8424839250000008E-2</v>
+      </c>
+      <c r="AH27" s="23">
+        <f t="shared" si="14"/>
+        <v>77.502445400697184</v>
+      </c>
+      <c r="AI27" s="23">
+        <f t="shared" si="15"/>
+        <v>360.56514061724448</v>
+      </c>
+      <c r="AK27" s="23" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AL27" s="23" t="b">
+        <f>IF(AE27&gt;$AJ$2,AG27)</f>
+        <v>0</v>
+      </c>
+      <c r="AM27" s="23" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AN27" s="23" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:40" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>27</v>
       </c>
@@ -3919,11 +7484,11 @@
         <v>6.8378097348649997E-2</v>
       </c>
       <c r="M28" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>242.6715913366092</v>
       </c>
       <c r="N28" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>360.81161574431695</v>
       </c>
       <c r="O28" s="12">
@@ -3964,20 +7529,64 @@
       <c r="Y28" s="14">
         <v>0.56000000000000005</v>
       </c>
+      <c r="Z28" s="1">
+        <f t="shared" si="9"/>
+        <v>24.671611785888601</v>
+      </c>
       <c r="AA28" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
+        <v>24.671611785888601</v>
+      </c>
+      <c r="AB28" s="1">
+        <f t="shared" si="11"/>
         <v>27</v>
       </c>
-      <c r="AB28" s="23">
-        <f t="shared" si="9"/>
+      <c r="AC28" s="23">
+        <f t="shared" si="12"/>
         <v>-37.666666999999997</v>
       </c>
-      <c r="AC28" s="23">
-        <f t="shared" si="10"/>
+      <c r="AD28" s="23">
+        <f t="shared" si="13"/>
         <v>140.5</v>
       </c>
+      <c r="AE28" s="23">
+        <f>VLOOKUP(AB28,Sheet2!$D$2:$H$18,2,TRUE)*365.25*1000</f>
+        <v>13.01130075</v>
+      </c>
+      <c r="AF28" s="25">
+        <f>K28</f>
+        <v>0.10166666666666667</v>
+      </c>
+      <c r="AG28" s="25">
+        <f>VLOOKUP(AB28,Sheet2!$D$2:$H$18,5,TRUE)</f>
+        <v>6.8424839250000008E-2</v>
+      </c>
+      <c r="AH28" s="23">
+        <f t="shared" si="14"/>
+        <v>242.6715913366092</v>
+      </c>
+      <c r="AI28" s="23">
+        <f t="shared" si="15"/>
+        <v>360.56514061724448</v>
+      </c>
+      <c r="AK28" s="23" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AL28" s="23" t="b">
+        <f>IF(AE28&gt;$AJ$2,AG28)</f>
+        <v>0</v>
+      </c>
+      <c r="AM28" s="23" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AN28" s="23" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:40" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>28</v>
       </c>
@@ -4016,11 +7625,11 @@
         <v>6.8378097348649997E-2</v>
       </c>
       <c r="M29" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>56.716348933077242</v>
       </c>
       <c r="N29" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>360.81161574431695</v>
       </c>
       <c r="O29" s="12">
@@ -4061,20 +7670,64 @@
       <c r="Y29" s="14">
         <v>0.48</v>
       </c>
+      <c r="Z29" s="1">
+        <f t="shared" si="9"/>
+        <v>24.671611785888601</v>
+      </c>
       <c r="AA29" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
+        <v>24.671611785888601</v>
+      </c>
+      <c r="AB29" s="1">
+        <f t="shared" si="11"/>
         <v>28</v>
       </c>
-      <c r="AB29" s="23">
-        <f t="shared" si="9"/>
+      <c r="AC29" s="23">
+        <f t="shared" si="12"/>
         <v>-37.666666999999997</v>
       </c>
-      <c r="AC29" s="23">
-        <f t="shared" si="10"/>
+      <c r="AD29" s="23">
+        <f>G29</f>
         <v>140.5</v>
       </c>
+      <c r="AE29" s="23">
+        <f>VLOOKUP(AB29,Sheet2!$D$2:$H$18,2,TRUE)*365.25*1000</f>
+        <v>13.01130075</v>
+      </c>
+      <c r="AF29" s="25">
+        <f t="shared" ref="AF29:AF32" si="22">K29</f>
+        <v>0.435</v>
+      </c>
+      <c r="AG29" s="25">
+        <f>VLOOKUP(AB29,Sheet2!$D$2:$H$18,5,TRUE)</f>
+        <v>6.8424839250000008E-2</v>
+      </c>
+      <c r="AH29" s="23">
+        <f t="shared" si="14"/>
+        <v>56.716348933077242</v>
+      </c>
+      <c r="AI29" s="23">
+        <f t="shared" si="15"/>
+        <v>360.56514061724448</v>
+      </c>
+      <c r="AK29" s="23" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AL29" s="23" t="b">
+        <f>IF(AE29&gt;$AJ$2,AG29)</f>
+        <v>0</v>
+      </c>
+      <c r="AM29" s="23" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AN29" s="23" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:40" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>29</v>
       </c>
@@ -4113,11 +7766,11 @@
         <v>6.8378097348649997E-2</v>
       </c>
       <c r="M30" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>63.805892549711899</v>
       </c>
       <c r="N30" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>360.81161574431695</v>
       </c>
       <c r="O30" s="12">
@@ -4158,20 +7811,64 @@
       <c r="Y30" s="14">
         <v>0.86</v>
       </c>
+      <c r="Z30" s="1">
+        <f t="shared" si="9"/>
+        <v>24.671611785888601</v>
+      </c>
       <c r="AA30" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
+        <v>24.671611785888601</v>
+      </c>
+      <c r="AB30" s="1">
+        <f t="shared" si="11"/>
         <v>29</v>
       </c>
-      <c r="AB30" s="23">
-        <f t="shared" si="9"/>
+      <c r="AC30" s="23">
+        <f t="shared" si="12"/>
         <v>-37.666666999999997</v>
       </c>
-      <c r="AC30" s="23">
-        <f t="shared" si="10"/>
+      <c r="AD30" s="23">
+        <f t="shared" si="13"/>
         <v>140.5</v>
       </c>
+      <c r="AE30" s="23">
+        <f>VLOOKUP(AB30,Sheet2!$D$2:$H$18,2,TRUE)*365.25*1000</f>
+        <v>13.01130075</v>
+      </c>
+      <c r="AF30" s="25">
+        <f t="shared" si="22"/>
+        <v>0.38666666666666666</v>
+      </c>
+      <c r="AG30" s="25">
+        <f>VLOOKUP(AB30,Sheet2!$D$2:$H$18,5,TRUE)</f>
+        <v>6.8424839250000008E-2</v>
+      </c>
+      <c r="AH30" s="23">
+        <f t="shared" si="14"/>
+        <v>63.805892549711899</v>
+      </c>
+      <c r="AI30" s="23">
+        <f t="shared" si="15"/>
+        <v>360.56514061724448</v>
+      </c>
+      <c r="AK30" s="23" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AL30" s="23" t="b">
+        <f>IF(AE30&gt;$AJ$2,AG30)</f>
+        <v>0</v>
+      </c>
+      <c r="AM30" s="23" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AN30" s="23" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:40" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>30</v>
       </c>
@@ -4210,11 +7907,11 @@
         <v>6.8378097348649997E-2</v>
       </c>
       <c r="M31" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>124.91955334627139</v>
       </c>
       <c r="N31" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>360.81161574431695</v>
       </c>
       <c r="O31" s="12">
@@ -4255,20 +7952,64 @@
       <c r="Y31" s="14">
         <v>0.74</v>
       </c>
+      <c r="Z31" s="1">
+        <f t="shared" si="9"/>
+        <v>24.671611785888601</v>
+      </c>
       <c r="AA31" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
+        <v>24.671611785888601</v>
+      </c>
+      <c r="AB31" s="1">
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
-      <c r="AB31" s="23">
-        <f t="shared" si="9"/>
+      <c r="AC31" s="23">
+        <f t="shared" si="12"/>
         <v>-37.666666999999997</v>
       </c>
-      <c r="AC31" s="23">
-        <f t="shared" si="10"/>
+      <c r="AD31" s="23">
+        <f t="shared" si="13"/>
         <v>140.5</v>
       </c>
+      <c r="AE31" s="23">
+        <f>VLOOKUP(AB31,Sheet2!$D$2:$H$18,2,TRUE)*365.25*1000</f>
+        <v>13.01130075</v>
+      </c>
+      <c r="AF31" s="25">
+        <f t="shared" si="22"/>
+        <v>0.19750000000000001</v>
+      </c>
+      <c r="AG31" s="25">
+        <f>VLOOKUP(AB31,Sheet2!$D$2:$H$18,5,TRUE)</f>
+        <v>6.8424839250000008E-2</v>
+      </c>
+      <c r="AH31" s="23">
+        <f t="shared" si="14"/>
+        <v>124.91955334627139</v>
+      </c>
+      <c r="AI31" s="23">
+        <f t="shared" si="15"/>
+        <v>360.56514061724448</v>
+      </c>
+      <c r="AK31" s="23" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AL31" s="23" t="b">
+        <f>IF(AE31&gt;$AJ$2,AG31)</f>
+        <v>0</v>
+      </c>
+      <c r="AM31" s="23" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AN31" s="23" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:40" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
         <v>31</v>
       </c>
@@ -4307,11 +8048,11 @@
         <v>6.8378097348649997E-2</v>
       </c>
       <c r="M32" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>81.559047226078022</v>
       </c>
       <c r="N32" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>360.81161574431695</v>
       </c>
       <c r="O32" s="12">
@@ -4352,20 +8093,64 @@
       <c r="Y32" s="14">
         <v>0.66</v>
       </c>
+      <c r="Z32" s="1">
+        <f t="shared" si="9"/>
+        <v>24.671611785888601</v>
+      </c>
       <c r="AA32" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
+        <v>24.671611785888601</v>
+      </c>
+      <c r="AB32" s="1">
+        <f t="shared" si="11"/>
         <v>31</v>
       </c>
-      <c r="AB32" s="23">
-        <f t="shared" si="9"/>
+      <c r="AC32" s="23">
+        <f t="shared" si="12"/>
         <v>-37.666666999999997</v>
       </c>
-      <c r="AC32" s="23">
-        <f t="shared" si="10"/>
+      <c r="AD32" s="23">
+        <f t="shared" si="13"/>
         <v>140.5</v>
       </c>
+      <c r="AE32" s="23">
+        <f>VLOOKUP(AB32,Sheet2!$D$2:$H$18,2,TRUE)*365.25*1000</f>
+        <v>13.01130075</v>
+      </c>
+      <c r="AF32" s="25">
+        <f t="shared" si="22"/>
+        <v>0.30249999999999999</v>
+      </c>
+      <c r="AG32" s="25">
+        <f>VLOOKUP(AB32,Sheet2!$D$2:$H$18,5,TRUE)</f>
+        <v>6.8424839250000008E-2</v>
+      </c>
+      <c r="AH32" s="23">
+        <f t="shared" si="14"/>
+        <v>81.559047226078022</v>
+      </c>
+      <c r="AI32" s="23">
+        <f t="shared" si="15"/>
+        <v>360.56514061724448</v>
+      </c>
+      <c r="AK32" s="23" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AL32" s="23" t="b">
+        <f>IF(AE32&gt;$AJ$2,AG32)</f>
+        <v>0</v>
+      </c>
+      <c r="AM32" s="23" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AN32" s="23" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:40" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
         <v>32</v>
       </c>
@@ -4404,11 +8189,11 @@
         <v>6.8378097348649997E-2</v>
       </c>
       <c r="M33" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>82.698140064431058</v>
       </c>
       <c r="N33" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>360.81161574431695</v>
       </c>
       <c r="O33" s="12">
@@ -4449,20 +8234,64 @@
       <c r="Y33" s="14">
         <v>0.79</v>
       </c>
+      <c r="Z33" s="1">
+        <f t="shared" si="9"/>
+        <v>24.671611785888601</v>
+      </c>
       <c r="AA33" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
+        <v>24.671611785888601</v>
+      </c>
+      <c r="AB33" s="1">
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
-      <c r="AB33" s="23">
-        <f t="shared" si="9"/>
+      <c r="AC33" s="23">
+        <f t="shared" si="12"/>
         <v>-37.666666999999997</v>
       </c>
-      <c r="AC33" s="23">
-        <f t="shared" si="10"/>
+      <c r="AD33" s="23">
+        <f t="shared" si="13"/>
         <v>140.5</v>
       </c>
+      <c r="AE33" s="23">
+        <f>VLOOKUP(AB33,Sheet2!$D$2:$H$18,2,TRUE)*365.25*1000</f>
+        <v>13.01130075</v>
+      </c>
+      <c r="AF33" s="25">
+        <f>K33</f>
+        <v>0.29833333333333334</v>
+      </c>
+      <c r="AG33" s="25">
+        <f>VLOOKUP(AB33,Sheet2!$D$2:$H$18,5,TRUE)</f>
+        <v>6.8424839250000008E-2</v>
+      </c>
+      <c r="AH33" s="23">
+        <f t="shared" si="14"/>
+        <v>82.698140064431058</v>
+      </c>
+      <c r="AI33" s="23">
+        <f t="shared" si="15"/>
+        <v>360.56514061724448</v>
+      </c>
+      <c r="AK33" s="23" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AL33" s="23" t="b">
+        <f>IF(AE33&gt;$AJ$2,AG33)</f>
+        <v>0</v>
+      </c>
+      <c r="AM33" s="23" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AN33" s="23" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:40" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="14">
         <v>33</v>
       </c>
@@ -4501,11 +8330,11 @@
         <v>6.8378097348649997E-2</v>
       </c>
       <c r="M34" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2467.1611785888599</v>
       </c>
       <c r="N34" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>360.81161574431695</v>
       </c>
       <c r="O34" s="12">
@@ -4546,20 +8375,64 @@
       <c r="Y34" s="14">
         <v>0.78</v>
       </c>
+      <c r="Z34" s="1">
+        <f t="shared" si="9"/>
+        <v>24.671611785888601</v>
+      </c>
       <c r="AA34" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
+        <v>24.671611785888601</v>
+      </c>
+      <c r="AB34" s="1">
+        <f t="shared" si="11"/>
         <v>33</v>
       </c>
-      <c r="AB34" s="23">
-        <f t="shared" si="9"/>
+      <c r="AC34" s="23">
+        <f t="shared" si="12"/>
         <v>-37.666666999999997</v>
       </c>
-      <c r="AC34" s="23">
-        <f t="shared" si="10"/>
+      <c r="AD34" s="23">
+        <f t="shared" si="13"/>
         <v>140.5</v>
       </c>
+      <c r="AE34" s="23">
+        <f>VLOOKUP(AB34,Sheet2!$D$2:$H$18,2,TRUE)*365.25*1000</f>
+        <v>13.01130075</v>
+      </c>
+      <c r="AF34" s="25">
+        <f>K34</f>
+        <v>0.01</v>
+      </c>
+      <c r="AG34" s="25">
+        <f>VLOOKUP(AB34,Sheet2!$D$2:$H$18,5,TRUE)</f>
+        <v>6.8424839250000008E-2</v>
+      </c>
+      <c r="AH34" s="23">
+        <f t="shared" si="14"/>
+        <v>2467.1611785888599</v>
+      </c>
+      <c r="AI34" s="23">
+        <f t="shared" si="15"/>
+        <v>360.56514061724448</v>
+      </c>
+      <c r="AK34" s="23" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AL34" s="23" t="b">
+        <f>IF(AE34&gt;$AJ$2,AG34)</f>
+        <v>0</v>
+      </c>
+      <c r="AM34" s="23" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AN34" s="23" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:40" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
         <v>34</v>
       </c>
@@ -4598,11 +8471,11 @@
         <v>6.8378097348649997E-2</v>
       </c>
       <c r="M35" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>30.490148448060062</v>
       </c>
       <c r="N35" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>360.81161574431695</v>
       </c>
       <c r="O35" s="12">
@@ -4643,20 +8516,64 @@
       <c r="Y35" s="14">
         <v>0.69</v>
       </c>
+      <c r="Z35" s="1">
+        <f t="shared" si="9"/>
+        <v>24.671611785888601</v>
+      </c>
       <c r="AA35" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
+        <v>24.671611785888601</v>
+      </c>
+      <c r="AB35" s="1">
+        <f t="shared" si="11"/>
         <v>34</v>
       </c>
-      <c r="AB35" s="23">
-        <f t="shared" si="9"/>
+      <c r="AC35" s="23">
+        <f t="shared" si="12"/>
         <v>-37.666666999999997</v>
       </c>
-      <c r="AC35" s="23">
-        <f t="shared" si="10"/>
+      <c r="AD35" s="23">
+        <f t="shared" si="13"/>
         <v>140.5</v>
       </c>
+      <c r="AE35" s="23">
+        <f>VLOOKUP(AB35,Sheet2!$D$2:$H$18,2,TRUE)*365.25*1000</f>
+        <v>13.01130075</v>
+      </c>
+      <c r="AF35" s="25">
+        <f t="shared" ref="AF35:AF42" si="23">K35</f>
+        <v>0.8091666666666667</v>
+      </c>
+      <c r="AG35" s="25">
+        <f>VLOOKUP(AB35,Sheet2!$D$2:$H$18,5,TRUE)</f>
+        <v>6.8424839250000008E-2</v>
+      </c>
+      <c r="AH35" s="23">
+        <f t="shared" si="14"/>
+        <v>30.490148448060062</v>
+      </c>
+      <c r="AI35" s="23">
+        <f t="shared" si="15"/>
+        <v>360.56514061724448</v>
+      </c>
+      <c r="AK35" s="23" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AL35" s="23" t="b">
+        <f>IF(AE35&gt;$AJ$2,AG35)</f>
+        <v>0</v>
+      </c>
+      <c r="AM35" s="23" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AN35" s="23" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:40" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
         <v>35</v>
       </c>
@@ -4695,11 +8612,11 @@
         <v>6.8378097348649997E-2</v>
       </c>
       <c r="M36" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>31.529216339793734</v>
       </c>
       <c r="N36" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>360.81161574431695</v>
       </c>
       <c r="O36" s="12">
@@ -4740,20 +8657,64 @@
       <c r="Y36" s="14">
         <v>0.46</v>
       </c>
+      <c r="Z36" s="1">
+        <f t="shared" si="9"/>
+        <v>24.671611785888601</v>
+      </c>
       <c r="AA36" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
+        <v>24.671611785888601</v>
+      </c>
+      <c r="AB36" s="1">
+        <f t="shared" si="11"/>
         <v>35</v>
       </c>
-      <c r="AB36" s="23">
-        <f t="shared" si="9"/>
+      <c r="AC36" s="23">
+        <f t="shared" si="12"/>
         <v>-37.666666999999997</v>
       </c>
-      <c r="AC36" s="23">
-        <f t="shared" si="10"/>
+      <c r="AD36" s="23">
+        <f t="shared" si="13"/>
         <v>140.5</v>
       </c>
+      <c r="AE36" s="23">
+        <f>VLOOKUP(AB36,Sheet2!$D$2:$H$18,2,TRUE)*365.25*1000</f>
+        <v>13.01130075</v>
+      </c>
+      <c r="AF36" s="25">
+        <f t="shared" si="23"/>
+        <v>0.78250000000000008</v>
+      </c>
+      <c r="AG36" s="25">
+        <f>VLOOKUP(AB36,Sheet2!$D$2:$H$18,5,TRUE)</f>
+        <v>6.8424839250000008E-2</v>
+      </c>
+      <c r="AH36" s="23">
+        <f t="shared" si="14"/>
+        <v>31.529216339793734</v>
+      </c>
+      <c r="AI36" s="23">
+        <f t="shared" si="15"/>
+        <v>360.56514061724448</v>
+      </c>
+      <c r="AK36" s="23" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AL36" s="23" t="b">
+        <f>IF(AE36&gt;$AJ$2,AG36)</f>
+        <v>0</v>
+      </c>
+      <c r="AM36" s="23" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AN36" s="23" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A37" s="14">
         <v>36</v>
       </c>
@@ -4792,11 +8753,11 @@
         <v>0.91069604153752004</v>
       </c>
       <c r="M37" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1537.2809773330805</v>
       </c>
       <c r="N37" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>213.92516481386673</v>
       </c>
       <c r="O37" s="12">
@@ -4835,20 +8796,64 @@
       <c r="Y37" s="14">
         <v>0.91</v>
       </c>
+      <c r="Z37" s="1">
+        <f t="shared" si="9"/>
+        <v>194.82080078125</v>
+      </c>
       <c r="AA37" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
+        <v>194.82080078125</v>
+      </c>
+      <c r="AB37" s="1">
+        <f t="shared" si="11"/>
         <v>36</v>
       </c>
-      <c r="AB37" s="23">
-        <f t="shared" si="9"/>
+      <c r="AC37" s="23">
+        <f t="shared" si="12"/>
         <v>50.9</v>
       </c>
-      <c r="AC37" s="23">
-        <f t="shared" si="10"/>
+      <c r="AD37" s="23">
+        <f t="shared" si="13"/>
         <v>-1.983333</v>
       </c>
+      <c r="AE37" s="23">
+        <f>VLOOKUP(AB37,Sheet2!$D$2:$H$18,2,TRUE)*365.25*1000</f>
+        <v>13.01130075</v>
+      </c>
+      <c r="AF37" s="25">
+        <f t="shared" si="23"/>
+        <v>0.12673076923076923</v>
+      </c>
+      <c r="AG37" s="25">
+        <f>VLOOKUP(AB37,Sheet2!$D$2:$H$18,5,TRUE)</f>
+        <v>6.8424839250000008E-2</v>
+      </c>
+      <c r="AH37" s="23">
+        <f t="shared" si="14"/>
+        <v>1537.2809773330805</v>
+      </c>
+      <c r="AI37" s="23">
+        <f t="shared" si="15"/>
+        <v>2847.2233609412533</v>
+      </c>
+      <c r="AK37" s="23" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AL37" s="23" t="b">
+        <f>IF(AE37&gt;$AJ$2,AG37)</f>
+        <v>0</v>
+      </c>
+      <c r="AM37" s="23" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AN37" s="23" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A38" s="14">
         <v>37</v>
       </c>
@@ -4888,11 +8893,11 @@
         <v>7.7839429359144993E-2</v>
       </c>
       <c r="M38" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1430.2004179666546</v>
       </c>
       <c r="N38" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2502.8549462042197</v>
       </c>
       <c r="O38" s="11">
@@ -4933,20 +8938,64 @@
       <c r="Y38" s="11">
         <v>0.91700000000000004</v>
       </c>
+      <c r="Z38" s="1">
+        <f t="shared" si="9"/>
+        <v>194.82080078125</v>
+      </c>
       <c r="AA38" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
+        <v>194.82080078125</v>
+      </c>
+      <c r="AB38" s="1">
+        <f t="shared" si="11"/>
         <v>37</v>
       </c>
-      <c r="AB38" s="23">
-        <f t="shared" si="9"/>
+      <c r="AC38" s="23">
+        <f t="shared" si="12"/>
         <v>35.166666999999997</v>
       </c>
-      <c r="AC38" s="23">
-        <f t="shared" si="10"/>
+      <c r="AD38" s="23">
+        <f t="shared" si="13"/>
         <v>107.8</v>
       </c>
+      <c r="AE38" s="23">
+        <f>VLOOKUP(AB38,Sheet2!$D$2:$H$18,2,TRUE)*365.25*1000</f>
+        <v>13.01130075</v>
+      </c>
+      <c r="AF38" s="25">
+        <f t="shared" si="23"/>
+        <v>0.13621923076923076</v>
+      </c>
+      <c r="AG38" s="25">
+        <f>VLOOKUP(AB38,Sheet2!$D$2:$H$18,5,TRUE)</f>
+        <v>6.8424839250000008E-2</v>
+      </c>
+      <c r="AH38" s="23">
+        <f t="shared" si="14"/>
+        <v>1430.2004179666546</v>
+      </c>
+      <c r="AI38" s="23">
+        <f t="shared" si="15"/>
+        <v>2847.2233609412533</v>
+      </c>
+      <c r="AK38" s="23" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AL38" s="23" t="b">
+        <f>IF(AE38&gt;$AJ$2,AG38)</f>
+        <v>0</v>
+      </c>
+      <c r="AM38" s="23" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AN38" s="23" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A39" s="14">
         <v>38</v>
       </c>
@@ -4975,7 +9024,7 @@
         <v>2015</v>
       </c>
       <c r="J39" s="17">
-        <f t="shared" ref="J39:J45" si="11">T39</f>
+        <f t="shared" ref="J39:J45" si="24">T39</f>
         <v>9.5069999999999997</v>
       </c>
       <c r="K39" s="11">
@@ -4986,11 +9035,11 @@
         <v>3.66129675E-7</v>
       </c>
       <c r="M39" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1215.0837538655728</v>
       </c>
       <c r="N39" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>606752304.35773885</v>
       </c>
       <c r="O39" s="11">
@@ -5031,20 +9080,64 @@
       <c r="Y39" s="11">
         <v>0.79330000000000001</v>
       </c>
+      <c r="Z39" s="1">
+        <f t="shared" si="9"/>
+        <v>222.15002400000003</v>
+      </c>
       <c r="AA39" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
+        <v>222.150024</v>
+      </c>
+      <c r="AB39" s="1">
+        <f t="shared" si="11"/>
         <v>38</v>
       </c>
-      <c r="AB39" s="23">
-        <f t="shared" si="9"/>
+      <c r="AC39" s="23">
+        <f t="shared" si="12"/>
         <v>37.166666999999997</v>
       </c>
-      <c r="AC39" s="23">
-        <f t="shared" si="10"/>
+      <c r="AD39" s="23">
+        <f t="shared" si="13"/>
         <v>110.25</v>
       </c>
+      <c r="AE39" s="23">
+        <f>VLOOKUP(AB39,Sheet2!$D$2:$H$18,2,TRUE)*365.25*1000</f>
+        <v>5.0000168250000003</v>
+      </c>
+      <c r="AF39" s="25">
+        <f t="shared" si="23"/>
+        <v>0.18282692307692308</v>
+      </c>
+      <c r="AG39" s="25">
+        <f>VLOOKUP(AB39,Sheet2!$D$2:$H$18,5,TRUE)</f>
+        <v>3.0586875075000002E-2</v>
+      </c>
+      <c r="AH39" s="23">
+        <f t="shared" si="14"/>
+        <v>1215.0837538655728</v>
+      </c>
+      <c r="AI39" s="23">
+        <f t="shared" si="15"/>
+        <v>7262.9199110821555</v>
+      </c>
+      <c r="AK39" s="23" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AL39" s="23" t="b">
+        <f>IF(AE39&gt;$AJ$2,AG39)</f>
+        <v>0</v>
+      </c>
+      <c r="AM39" s="23" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AN39" s="23" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A40" s="14">
         <v>39</v>
       </c>
@@ -5073,7 +9166,7 @@
         <v>2015</v>
       </c>
       <c r="J40" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>11.298</v>
       </c>
       <c r="K40" s="11">
@@ -5084,11 +9177,11 @@
         <v>3.66129675E-7</v>
       </c>
       <c r="M40" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1022.464263409453</v>
       </c>
       <c r="N40" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>606752304.35773885</v>
       </c>
       <c r="O40" s="11">
@@ -5129,20 +9222,64 @@
       <c r="Y40" s="11">
         <v>0.85640000000000005</v>
       </c>
+      <c r="Z40" s="1">
+        <f t="shared" si="9"/>
+        <v>222.150024</v>
+      </c>
       <c r="AA40" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
+        <v>222.150024</v>
+      </c>
+      <c r="AB40" s="1">
+        <f t="shared" si="11"/>
         <v>39</v>
       </c>
-      <c r="AB40" s="23">
-        <f t="shared" si="9"/>
+      <c r="AC40" s="23">
+        <f t="shared" si="12"/>
         <v>37.166666999999997</v>
       </c>
-      <c r="AC40" s="23">
-        <f t="shared" si="10"/>
+      <c r="AD40" s="23">
+        <f t="shared" si="13"/>
         <v>110.25</v>
       </c>
+      <c r="AE40" s="23">
+        <f>VLOOKUP(AB40,Sheet2!$D$2:$H$18,2,TRUE)*365.25*1000</f>
+        <v>5.0000168250000003</v>
+      </c>
+      <c r="AF40" s="25">
+        <f t="shared" si="23"/>
+        <v>0.21726923076923077</v>
+      </c>
+      <c r="AG40" s="25">
+        <f>VLOOKUP(AB40,Sheet2!$D$2:$H$18,5,TRUE)</f>
+        <v>3.0586875075000002E-2</v>
+      </c>
+      <c r="AH40" s="23">
+        <f t="shared" si="14"/>
+        <v>1022.464263409453</v>
+      </c>
+      <c r="AI40" s="23">
+        <f t="shared" si="15"/>
+        <v>7262.9199110821555</v>
+      </c>
+      <c r="AK40" s="23" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AL40" s="23" t="b">
+        <f>IF(AE40&gt;$AJ$2,AG40)</f>
+        <v>0</v>
+      </c>
+      <c r="AM40" s="23" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AN40" s="23" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A41" s="14">
         <v>40</v>
       </c>
@@ -5171,7 +9308,7 @@
         <v>2015</v>
       </c>
       <c r="J41" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>10.048</v>
       </c>
       <c r="K41" s="11">
@@ -5182,11 +9319,11 @@
         <v>3.66129675E-7</v>
       </c>
       <c r="M41" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1149.6617484076432</v>
       </c>
       <c r="N41" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>606752304.35773885</v>
       </c>
       <c r="O41" s="11">
@@ -5227,20 +9364,64 @@
       <c r="Y41" s="11">
         <v>0.86399999999999999</v>
       </c>
+      <c r="Z41" s="1">
+        <f t="shared" si="9"/>
+        <v>222.150024</v>
+      </c>
       <c r="AA41" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
+        <v>222.150024</v>
+      </c>
+      <c r="AB41" s="1">
+        <f t="shared" si="11"/>
         <v>40</v>
       </c>
-      <c r="AB41" s="23">
-        <f t="shared" si="9"/>
+      <c r="AC41" s="23">
+        <f t="shared" si="12"/>
         <v>37.166666999999997</v>
       </c>
-      <c r="AC41" s="23">
-        <f t="shared" si="10"/>
+      <c r="AD41" s="23">
+        <f t="shared" si="13"/>
         <v>110.25</v>
       </c>
+      <c r="AE41" s="23">
+        <f>VLOOKUP(AB41,Sheet2!$D$2:$H$18,2,TRUE)*365.25*1000</f>
+        <v>5.0000168250000003</v>
+      </c>
+      <c r="AF41" s="25">
+        <f t="shared" si="23"/>
+        <v>0.19323076923076923</v>
+      </c>
+      <c r="AG41" s="25">
+        <f>VLOOKUP(AB41,Sheet2!$D$2:$H$18,5,TRUE)</f>
+        <v>3.0586875075000002E-2</v>
+      </c>
+      <c r="AH41" s="23">
+        <f t="shared" si="14"/>
+        <v>1149.6617484076432</v>
+      </c>
+      <c r="AI41" s="23">
+        <f t="shared" si="15"/>
+        <v>7262.9199110821555</v>
+      </c>
+      <c r="AK41" s="23" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AL41" s="23" t="b">
+        <f>IF(AE41&gt;$AJ$2,AG41)</f>
+        <v>0</v>
+      </c>
+      <c r="AM41" s="23" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AN41" s="23" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A42" s="14">
         <v>41</v>
       </c>
@@ -5269,7 +9450,7 @@
         <v>2015</v>
       </c>
       <c r="J42" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>11.346</v>
       </c>
       <c r="K42" s="11">
@@ -5280,11 +9461,11 @@
         <v>3.66129675E-7</v>
       </c>
       <c r="M42" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1018.1386610259123</v>
       </c>
       <c r="N42" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>606752304.35773885</v>
       </c>
       <c r="O42" s="11">
@@ -5325,20 +9506,64 @@
       <c r="Y42" s="11">
         <v>0.80940000000000001</v>
       </c>
+      <c r="Z42" s="1">
+        <f t="shared" si="9"/>
+        <v>222.150024</v>
+      </c>
       <c r="AA42" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
+        <v>222.150024</v>
+      </c>
+      <c r="AB42" s="1">
+        <f t="shared" si="11"/>
         <v>41</v>
       </c>
-      <c r="AB42" s="23">
-        <f t="shared" si="9"/>
+      <c r="AC42" s="23">
+        <f t="shared" si="12"/>
         <v>37.166666999999997</v>
       </c>
-      <c r="AC42" s="23">
-        <f t="shared" si="10"/>
+      <c r="AD42" s="23">
+        <f t="shared" si="13"/>
         <v>110.25</v>
       </c>
+      <c r="AE42" s="23">
+        <f>VLOOKUP(AB42,Sheet2!$D$2:$H$18,2,TRUE)*365.25*1000</f>
+        <v>5.0000168250000003</v>
+      </c>
+      <c r="AF42" s="25">
+        <f t="shared" si="23"/>
+        <v>0.21819230769230769</v>
+      </c>
+      <c r="AG42" s="25">
+        <f>VLOOKUP(AB42,Sheet2!$D$2:$H$18,5,TRUE)</f>
+        <v>3.0586875075000002E-2</v>
+      </c>
+      <c r="AH42" s="23">
+        <f t="shared" si="14"/>
+        <v>1018.1386610259123</v>
+      </c>
+      <c r="AI42" s="23">
+        <f t="shared" si="15"/>
+        <v>7262.9199110821555</v>
+      </c>
+      <c r="AK42" s="23" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AL42" s="23" t="b">
+        <f>IF(AE42&gt;$AJ$2,AG42)</f>
+        <v>0</v>
+      </c>
+      <c r="AM42" s="23" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AN42" s="23" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A43" s="14">
         <v>42</v>
       </c>
@@ -5367,7 +9592,7 @@
         <v>2015</v>
       </c>
       <c r="J43" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>8.1601999999999997</v>
       </c>
       <c r="K43" s="11">
@@ -5378,11 +9603,11 @@
         <v>0.30509350064688001</v>
       </c>
       <c r="M43" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>665.40243033258992</v>
       </c>
       <c r="N43" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>342.25427870014454</v>
       </c>
       <c r="O43" s="11">
@@ -5423,20 +9648,64 @@
       <c r="Y43" s="11">
         <v>0.85940000000000005</v>
       </c>
+      <c r="Z43" s="1">
+        <f t="shared" si="9"/>
+        <v>104.419556</v>
+      </c>
       <c r="AA43" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
+        <v>104.419556</v>
+      </c>
+      <c r="AB43" s="1">
+        <f t="shared" si="11"/>
         <v>42</v>
       </c>
-      <c r="AB43" s="23">
-        <f t="shared" si="9"/>
+      <c r="AC43" s="23">
+        <f t="shared" si="12"/>
         <v>35.833333000000003</v>
       </c>
-      <c r="AC43" s="23">
-        <f t="shared" si="10"/>
+      <c r="AD43" s="23">
+        <f t="shared" si="13"/>
         <v>109.5</v>
       </c>
+      <c r="AE43" s="23">
+        <f>VLOOKUP(AB43,Sheet2!$D$2:$H$18,2,TRUE)*365.25*1000</f>
+        <v>69.538486499999991</v>
+      </c>
+      <c r="AF43" s="25">
+        <f>K43</f>
+        <v>0.15692692307692307</v>
+      </c>
+      <c r="AG43" s="25">
+        <f>VLOOKUP(AB43,Sheet2!$D$2:$H$18,5,TRUE)</f>
+        <v>0.30530261325000002</v>
+      </c>
+      <c r="AH43" s="23">
+        <f t="shared" si="14"/>
+        <v>665.40243033258992</v>
+      </c>
+      <c r="AI43" s="23">
+        <f t="shared" si="15"/>
+        <v>342.01985658896092</v>
+      </c>
+      <c r="AK43" s="23">
+        <f t="shared" si="16"/>
+        <v>0.15692692307692307</v>
+      </c>
+      <c r="AL43" s="23">
+        <f>IF(AE43&gt;$AJ$2,AG43)</f>
+        <v>0.30530261325000002</v>
+      </c>
+      <c r="AM43" s="23">
+        <f t="shared" si="17"/>
+        <v>665.40243033258992</v>
+      </c>
+      <c r="AN43" s="23">
+        <f t="shared" si="18"/>
+        <v>342.01985658896092</v>
+      </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A44" s="14">
         <v>43</v>
       </c>
@@ -5465,7 +9734,7 @@
         <v>2017</v>
       </c>
       <c r="J44" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>11.448</v>
       </c>
       <c r="K44" s="11">
@@ -5476,11 +9745,11 @@
         <v>0.11512320445035</v>
       </c>
       <c r="M44" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>573.11320754716985</v>
       </c>
       <c r="N44" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1055.3910532641589</v>
       </c>
       <c r="O44" s="11">
@@ -5521,20 +9790,64 @@
       <c r="Y44" s="11">
         <v>0.83560000000000001</v>
       </c>
+      <c r="Z44" s="1">
+        <f t="shared" si="9"/>
+        <v>121.5</v>
+      </c>
       <c r="AA44" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
+        <v>121.5</v>
+      </c>
+      <c r="AB44" s="1">
+        <f t="shared" si="11"/>
         <v>43</v>
       </c>
-      <c r="AB44" s="23">
-        <f t="shared" si="9"/>
+      <c r="AC44" s="23">
+        <f t="shared" si="12"/>
         <v>38.797230999999996</v>
       </c>
-      <c r="AC44" s="23">
-        <f t="shared" si="10"/>
+      <c r="AD44" s="23">
+        <f t="shared" si="13"/>
         <v>110.371483</v>
       </c>
+      <c r="AE44" s="23">
+        <f>VLOOKUP(AB44,Sheet2!$D$2:$H$18,2,TRUE)*365.25*1000</f>
+        <v>19.36781955</v>
+      </c>
+      <c r="AF44" s="25">
+        <f>K44</f>
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="AG44" s="25">
+        <f>VLOOKUP(AB44,Sheet2!$D$2:$H$18,5,TRUE)</f>
+        <v>0.1152020415</v>
+      </c>
+      <c r="AH44" s="23">
+        <f t="shared" si="14"/>
+        <v>573.11320754716985</v>
+      </c>
+      <c r="AI44" s="23">
+        <f t="shared" si="15"/>
+        <v>1054.6688098404923</v>
+      </c>
+      <c r="AK44" s="23" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AL44" s="23" t="b">
+        <f>IF(AE44&gt;$AJ$2,AG44)</f>
+        <v>0</v>
+      </c>
+      <c r="AM44" s="23" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AN44" s="23" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A45" s="14">
         <v>44</v>
       </c>
@@ -5563,7 +9876,7 @@
         <v>2018</v>
       </c>
       <c r="J45" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>7.21</v>
       </c>
       <c r="K45" s="11">
@@ -5574,11 +9887,11 @@
         <v>7.3540788653020009E-2</v>
       </c>
       <c r="M45" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1156.4566380027741</v>
       </c>
       <c r="N45" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2061.4539873278118</v>
       </c>
       <c r="O45" s="11">
@@ -5619,20 +9932,64 @@
       <c r="Y45" s="11">
         <v>0.20399999999999999</v>
       </c>
+      <c r="Z45" s="1">
+        <f t="shared" si="9"/>
+        <v>151.60095200000001</v>
+      </c>
       <c r="AA45" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
+        <v>151.60095200000001</v>
+      </c>
+      <c r="AB45" s="1">
+        <f t="shared" si="11"/>
         <v>44</v>
       </c>
-      <c r="AB45" s="23">
-        <f t="shared" si="9"/>
+      <c r="AC45" s="23">
+        <f t="shared" si="12"/>
         <v>35.494999999999997</v>
       </c>
-      <c r="AC45" s="23">
-        <f t="shared" si="10"/>
+      <c r="AD45" s="23">
+        <f t="shared" si="13"/>
         <v>107.65389999999999</v>
       </c>
+      <c r="AE45" s="23">
+        <f>VLOOKUP(AB45,Sheet2!$D$2:$H$18,2,TRUE)*365.25*1000</f>
+        <v>13.101773175000002</v>
+      </c>
+      <c r="AF45" s="25">
+        <f>K45</f>
+        <v>0.13109090909090909</v>
+      </c>
+      <c r="AG45" s="25">
+        <f>VLOOKUP(AB45,Sheet2!$D$2:$H$18,5,TRUE)</f>
+        <v>7.3591300499999998E-2</v>
+      </c>
+      <c r="AH45" s="23">
+        <f t="shared" si="14"/>
+        <v>1156.4566380027741</v>
+      </c>
+      <c r="AI45" s="23">
+        <f t="shared" si="15"/>
+        <v>2060.0390395329405</v>
+      </c>
+      <c r="AK45" s="23" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AL45" s="23" t="b">
+        <f>IF(AE45&gt;$AJ$2,AG45)</f>
+        <v>0</v>
+      </c>
+      <c r="AM45" s="23" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AN45" s="23" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:40" x14ac:dyDescent="0.2">
       <c r="H46" s="3"/>
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
@@ -5641,13 +9998,440 @@
       <c r="O46" s="5"/>
       <c r="P46" s="5"/>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:40" x14ac:dyDescent="0.2">
       <c r="H47" s="3"/>
       <c r="Q47" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{804E199E-5E7B-4671-9EB7-615FCEA68D7C}">
+  <dimension ref="B2:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>-1.375</v>
+      </c>
+      <c r="C2">
+        <v>51.458300000000001</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>6.5143600000000003E-4</v>
+      </c>
+      <c r="F2">
+        <v>0.237508</v>
+      </c>
+      <c r="G2">
+        <v>2.7427900000000002E-3</v>
+      </c>
+      <c r="H2">
+        <f>G2*365.25</f>
+        <v>1.0018040475000001</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>32.958300000000001</v>
+      </c>
+      <c r="C3">
+        <v>34.625</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1.25511E-4</v>
+      </c>
+      <c r="F3">
+        <v>0.20422899999999999</v>
+      </c>
+      <c r="G3">
+        <v>6.1456200000000003E-4</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H18" si="0">G3*365.25</f>
+        <v>0.2244687705</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>-116.458</v>
+      </c>
+      <c r="C4">
+        <v>36.958300000000001</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="24">
+        <v>1.36893E-5</v>
+      </c>
+      <c r="F4">
+        <v>0.112884</v>
+      </c>
+      <c r="G4">
+        <v>1.2126800000000001E-4</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>4.4293137000000003E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>-16.291699999999999</v>
+      </c>
+      <c r="C5">
+        <v>15.708299999999999</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5" s="24">
+        <v>1.36893E-5</v>
+      </c>
+      <c r="F5">
+        <v>0.11241</v>
+      </c>
+      <c r="G5">
+        <v>1.2178E-4</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>4.4480144999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>-116.708</v>
+      </c>
+      <c r="C6">
+        <v>36.791699999999999</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6" s="24">
+        <v>1.36893E-5</v>
+      </c>
+      <c r="F6">
+        <v>0.109193</v>
+      </c>
+      <c r="G6">
+        <v>1.25368E-4</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>4.5790661999999996E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>-117.292</v>
+      </c>
+      <c r="C7">
+        <v>34.458300000000001</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>2.8119400000000002E-4</v>
+      </c>
+      <c r="F7">
+        <v>0.157475</v>
+      </c>
+      <c r="G7">
+        <v>1.78564E-3</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0.65220500999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>113.708</v>
+      </c>
+      <c r="C8">
+        <v>37.708300000000001</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8" s="24">
+        <v>5.3483100000000003E-5</v>
+      </c>
+      <c r="F8">
+        <v>0.20644899999999999</v>
+      </c>
+      <c r="G8">
+        <v>2.5906200000000001E-4</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>9.4622395499999998E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>118.958</v>
+      </c>
+      <c r="C9">
+        <v>42.875</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9" s="24">
+        <v>1.36893E-5</v>
+      </c>
+      <c r="F9">
+        <v>0.18344099999999999</v>
+      </c>
+      <c r="G9" s="24">
+        <v>7.4624900000000004E-5</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>2.7256744725E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>107.792</v>
+      </c>
+      <c r="C10">
+        <v>35.208300000000001</v>
+      </c>
+      <c r="D10">
+        <v>12</v>
+      </c>
+      <c r="E10" s="24">
+        <v>3.8177799999999999E-5</v>
+      </c>
+      <c r="F10">
+        <v>0.17902100000000001</v>
+      </c>
+      <c r="G10">
+        <v>2.1325900000000001E-4</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>7.7892849750000007E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>23.208300000000001</v>
+      </c>
+      <c r="C11">
+        <v>-27.208300000000001</v>
+      </c>
+      <c r="D11">
+        <v>16</v>
+      </c>
+      <c r="E11" s="24">
+        <v>1.36893E-5</v>
+      </c>
+      <c r="F11">
+        <v>0.14421500000000001</v>
+      </c>
+      <c r="G11" s="24">
+        <v>9.4922399999999998E-5</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>3.4670406600000002E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>0.875</v>
+      </c>
+      <c r="C12">
+        <v>52.625</v>
+      </c>
+      <c r="D12">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>5.3524099999999999E-4</v>
+      </c>
+      <c r="F12">
+        <v>0.24760699999999999</v>
+      </c>
+      <c r="G12">
+        <v>2.1616500000000002E-3</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>0.78954266250000005</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>-1.9583299999999999</v>
+      </c>
+      <c r="C13">
+        <v>50.875</v>
+      </c>
+      <c r="D13">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>6.0093199999999999E-4</v>
+      </c>
+      <c r="F13">
+        <v>0.24084900000000001</v>
+      </c>
+      <c r="G13">
+        <v>2.4950599999999999E-3</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>0.91132066499999997</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>140.542</v>
+      </c>
+      <c r="C14">
+        <v>-37.708300000000001</v>
+      </c>
+      <c r="D14">
+        <v>26</v>
+      </c>
+      <c r="E14" s="24">
+        <v>3.5623000000000001E-5</v>
+      </c>
+      <c r="F14">
+        <v>0.19015499999999999</v>
+      </c>
+      <c r="G14">
+        <v>1.8733700000000001E-4</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>6.8424839250000008E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>110.292</v>
+      </c>
+      <c r="C15">
+        <v>37.208300000000001</v>
+      </c>
+      <c r="D15">
+        <v>38</v>
+      </c>
+      <c r="E15" s="24">
+        <v>1.36893E-5</v>
+      </c>
+      <c r="F15">
+        <v>0.163469</v>
+      </c>
+      <c r="G15" s="24">
+        <v>8.3742300000000006E-5</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>3.0586875075000002E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>109.542</v>
+      </c>
+      <c r="C16">
+        <v>35.791699999999999</v>
+      </c>
+      <c r="D16">
+        <v>42</v>
+      </c>
+      <c r="E16">
+        <v>1.9038599999999999E-4</v>
+      </c>
+      <c r="F16">
+        <v>0.227769</v>
+      </c>
+      <c r="G16">
+        <v>8.35873E-4</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>0.30530261325000002</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>110.375</v>
+      </c>
+      <c r="C17">
+        <v>38.791699999999999</v>
+      </c>
+      <c r="D17">
+        <v>43</v>
+      </c>
+      <c r="E17" s="24">
+        <v>5.3026199999999997E-5</v>
+      </c>
+      <c r="F17">
+        <v>0.16812099999999999</v>
+      </c>
+      <c r="G17">
+        <v>3.1540600000000001E-4</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>0.1152020415</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>107.625</v>
+      </c>
+      <c r="C18">
+        <v>35.458300000000001</v>
+      </c>
+      <c r="D18">
+        <v>44</v>
+      </c>
+      <c r="E18" s="24">
+        <v>3.5870700000000002E-5</v>
+      </c>
+      <c r="F18">
+        <v>0.178035</v>
+      </c>
+      <c r="G18">
+        <v>2.0148200000000001E-4</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>7.3591300499999998E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:G18">
+    <sortCondition ref="D2:D18"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>